--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.1/test_case_4_twenty_bus_radial_grid_YNyn_pf_sc_results_0_bus.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.1/test_case_4_twenty_bus_radial_grid_YNyn_pf_sc_results_0_bus.xlsx
@@ -1106,49 +1106,49 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="D2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="G2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="H2">
-        <v>0.01094228914518901</v>
+        <v>0.01094228914518902</v>
       </c>
       <c r="I2">
         <v>0.1094384008158593</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714029</v>
+        <v>0.01094540889714028</v>
       </c>
       <c r="K2">
         <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646414</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803685</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.691807218510523E-11</v>
+        <v>-8.692997786368696E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1198,22 +1198,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464776</v>
+        <v>0.9526279474464777</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172764</v>
+        <v>0.9526279821172765</v>
       </c>
       <c r="Q3">
-        <v>8.709506760827573E-08</v>
+        <v>8.709506056847447E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999128961</v>
+        <v>179.9999999128962</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777259</v>
+        <v>0.9526279330777261</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0.9526279964860253</v>
       </c>
       <c r="Q4">
-        <v>5.191990839745418E-07</v>
+        <v>5.191990612303E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1316,16 +1316,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027254</v>
+        <v>0.9526279361027257</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.952627993461025</v>
+        <v>0.9526279934610251</v>
       </c>
       <c r="Q5">
-        <v>4.282297107754676E-07</v>
+        <v>4.282296998804481E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0.9526279979985247</v>
       </c>
       <c r="Q6">
-        <v>5.646835658029021E-07</v>
+        <v>5.646835587631008E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783974</v>
+        <v>0.9526279277839742</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0.9526280017797745</v>
       </c>
       <c r="Q7">
-        <v>6.783951178051846E-07</v>
+        <v>6.783951069101654E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.952627927027724</v>
+        <v>0.9526279270277241</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360244</v>
+        <v>0.9526280025360245</v>
       </c>
       <c r="Q8">
-        <v>7.011374280666032E-07</v>
+        <v>7.011374171715838E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1558,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485241</v>
+        <v>0.9526280040485245</v>
       </c>
       <c r="Q9">
-        <v>7.46622044736029E-07</v>
+        <v>7.466220338410097E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.999999253369</v>
+        <v>179.9999992533691</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1617,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610241</v>
+        <v>0.9526280055610244</v>
       </c>
       <c r="Q10">
-        <v>7.921066587220343E-07</v>
+        <v>7.921066439717972E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1670,16 +1670,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464732</v>
+        <v>0.9526279232464733</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172744</v>
+        <v>0.9526280063172745</v>
       </c>
       <c r="Q11">
-        <v>8.148489670793215E-07</v>
+        <v>8.148489484738664E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1729,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777271</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860265</v>
+        <v>0.9526279843860266</v>
       </c>
       <c r="Q12">
-        <v>1.553219791436624E-07</v>
+        <v>1.553219721038611E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1788,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777271</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860265</v>
+        <v>0.9526279843860266</v>
       </c>
       <c r="Q13">
-        <v>1.553219791436624E-07</v>
+        <v>1.553219721038611E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089769</v>
+        <v>0.952627942908977</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0.9526279866547759</v>
       </c>
       <c r="Q14">
-        <v>2.235489508573844E-07</v>
+        <v>2.235489416384801E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999997764422</v>
+        <v>179.9999997764423</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1906,22 +1906,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964763</v>
+        <v>0.9526279413964764</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672756</v>
+        <v>0.9526279881672757</v>
       </c>
       <c r="Q15">
-        <v>2.690335401463811E-07</v>
+        <v>2.690335331065796E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997309576</v>
+        <v>179.9999997309577</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279459339771</v>
+        <v>0.9526279459339773</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297764</v>
+        <v>0.9526279836297765</v>
       </c>
       <c r="Q16">
-        <v>1.325796718335151E-07</v>
+        <v>1.325796647937138E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674115</v>
+        <v>179.9999998674116</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2024,22 +2024,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.9526279459339773</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297764</v>
+        <v>0.9526279836297765</v>
       </c>
       <c r="Q17">
-        <v>1.325796718335151E-07</v>
+        <v>1.325796647937138E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674115</v>
+        <v>179.9999998674116</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277264</v>
+        <v>0.9526279391277265</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360255</v>
+        <v>0.9526279904360256</v>
       </c>
       <c r="Q18">
-        <v>3.372605349754635E-07</v>
+        <v>3.372605247957901E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996627306</v>
+        <v>179.9999996627307</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2142,16 +2142,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.952627936102726</v>
+        <v>0.9526279361027261</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610251</v>
+        <v>0.9526279934610254</v>
       </c>
       <c r="Q19">
-        <v>4.282298132042055E-07</v>
+        <v>4.282298008448192E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2201,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339758</v>
+        <v>0.952627933833976</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.952627995729775</v>
+        <v>0.9526279957297753</v>
       </c>
       <c r="Q20">
-        <v>4.964567697443871E-07</v>
+        <v>4.964567548535978E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777259</v>
+        <v>0.9526279330777261</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0.9526279964860253</v>
       </c>
       <c r="Q21">
-        <v>5.191990758617216E-07</v>
+        <v>5.191990609709325E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2379,13 +2379,13 @@
         <v>0.1094383951790285</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714031</v>
+        <v>0.01094540889714032</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -2816,7 +2816,7 @@
         <v>29.14059842684156</v>
       </c>
       <c r="R9">
-        <v>-91.102147343452</v>
+        <v>-91.10214734345202</v>
       </c>
       <c r="S9">
         <v>150.3279626403925</v>
@@ -3625,19 +3625,19 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094228914518901</v>
+        <v>0.01094228914518902</v>
       </c>
       <c r="I2">
         <v>0.1094384008158593</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714029</v>
+        <v>0.01094540889714028</v>
       </c>
       <c r="K2">
         <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646414</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -4003,7 +4003,7 @@
         <v>1.073936237650113</v>
       </c>
       <c r="P8">
-        <v>1.084507398111132</v>
+        <v>1.084507398111131</v>
       </c>
       <c r="Q8">
         <v>29.14059842594518</v>
@@ -4059,7 +4059,7 @@
         <v>1.102503198760524</v>
       </c>
       <c r="O9">
-        <v>1.073936237627486</v>
+        <v>1.073936237627485</v>
       </c>
       <c r="P9">
         <v>1.084507398149724</v>
@@ -4862,19 +4862,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211798</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211798</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709823</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709823</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.0124339353478906</v>
@@ -4886,31 +4886,31 @@
         <v>0.01243796466366948</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845059</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849898</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.720172358099705E-10</v>
+        <v>1.720027799422672E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4954,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640274</v>
+        <v>0.8660253881640287</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054651</v>
+        <v>0.8660254194054653</v>
       </c>
       <c r="Q3">
-        <v>8.65929890174938E-08</v>
+        <v>8.659292756900869E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5013,22 +5013,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015279</v>
+        <v>0.8660253751015308</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q4">
-        <v>9.162329729932057E-07</v>
+        <v>9.162327462091732E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837586</v>
+        <v>179.9999990837587</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5072,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515273</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179627</v>
       </c>
       <c r="Q5">
-        <v>7.415718592769458E-07</v>
+        <v>7.415717719667891E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5131,22 +5131,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265273</v>
+        <v>0.8660253737265309</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429608</v>
+        <v>0.8660254338429614</v>
       </c>
       <c r="Q6">
-        <v>1.003563409593003E-06</v>
+        <v>1.003563319448449E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964281</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5190,22 +5190,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890275</v>
+        <v>0.8660253702890316</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804601</v>
+        <v>0.8660254372804603</v>
       </c>
       <c r="Q7">
-        <v>1.221889705489642E-06</v>
+        <v>1.221889606515988E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781019</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5249,22 +5249,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015274</v>
+        <v>0.8660253696015319</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679596</v>
+        <v>0.8660254379679603</v>
       </c>
       <c r="Q8">
-        <v>1.265554971363466E-06</v>
+        <v>1.265554854244043E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344366</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5308,22 +5308,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265278</v>
+        <v>0.8660253682265321</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429595</v>
+        <v>0.8660254393429602</v>
       </c>
       <c r="Q9">
-        <v>1.352885479118131E-06</v>
+        <v>1.352885379739456E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471061</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5367,22 +5367,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515278</v>
+        <v>0.8660253668515322</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179589</v>
+        <v>0.8660254407179598</v>
       </c>
       <c r="Q10">
-        <v>1.440215986837607E-06</v>
+        <v>1.44021589922249E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597756</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5426,22 +5426,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640279</v>
+        <v>0.8660253661640325</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.8660254414054597</v>
       </c>
       <c r="Q11">
-        <v>1.48388124359057E-06</v>
+        <v>1.483881151451149E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161104</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5485,16 +5485,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015277</v>
+        <v>0.8660253861015289</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679646</v>
+        <v>0.866025421467965</v>
       </c>
       <c r="Q12">
-        <v>2.175887460834534E-07</v>
+        <v>2.175886971434353E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5544,16 +5544,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015277</v>
+        <v>0.8660253861015289</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679646</v>
+        <v>0.866025421467965</v>
       </c>
       <c r="Q13">
-        <v>2.175887460834534E-07</v>
+        <v>2.175886971434353E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5603,16 +5603,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390276</v>
+        <v>0.8660253840390292</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304637</v>
+        <v>0.8660254235304644</v>
       </c>
       <c r="Q14">
-        <v>3.485845545043002E-07</v>
+        <v>3.485844420451058E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -5662,22 +5662,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640274</v>
+        <v>0.8660253826640293</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054634</v>
+        <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.359150453760785E-07</v>
+        <v>4.359149751540121E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640763</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -5721,16 +5721,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890275</v>
+        <v>0.8660253867890289</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804646</v>
+        <v>0.8660254207804651</v>
       </c>
       <c r="Q16">
-        <v>1.739234913409989E-07</v>
+        <v>1.739234426845448E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5780,16 +5780,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890275</v>
+        <v>0.8660253867890289</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804646</v>
+        <v>0.8660254207804651</v>
       </c>
       <c r="Q17">
-        <v>1.739234913409989E-07</v>
+        <v>1.739234426845448E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5839,22 +5839,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015276</v>
+        <v>0.8660253806015296</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679635</v>
       </c>
       <c r="Q18">
-        <v>5.669108717303619E-07</v>
+        <v>5.669107140128973E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330806</v>
+        <v>179.9999994330807</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -5898,22 +5898,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515279</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179621</v>
+        <v>0.8660254297179628</v>
       </c>
       <c r="Q19">
-        <v>7.415719276390054E-07</v>
+        <v>7.415717208287656E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5957,22 +5957,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890279</v>
+        <v>0.8660253757890305</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.866025431780462</v>
       </c>
       <c r="Q20">
-        <v>8.72567715172278E-07</v>
+        <v>8.725674847245856E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999991274238</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6016,22 +6016,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015282</v>
+        <v>0.8660253751015308</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679615</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q21">
-        <v>9.162329804914787E-07</v>
+        <v>9.162327318980181E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837586</v>
+        <v>179.9999990837587</v>
       </c>
     </row>
   </sheetData>
@@ -6114,19 +6114,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211798</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211798</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709823</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709823</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.0124339353478906</v>
@@ -6138,31 +6138,31 @@
         <v>0.01243796466366948</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.8660254037845059</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037849898</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.720172358099705E-10</v>
+        <v>1.720027799422672E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999998193</v>
+        <v>179.9999999998194</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6206,16 +6206,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640274</v>
+        <v>0.8660253881640287</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054651</v>
+        <v>0.8660254194054653</v>
       </c>
       <c r="Q3">
-        <v>8.65929890174938E-08</v>
+        <v>8.659292756900869E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6265,22 +6265,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015279</v>
+        <v>0.8660253751015308</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q4">
-        <v>9.162329729932057E-07</v>
+        <v>9.162327462091732E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837586</v>
+        <v>179.9999990837587</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6324,22 +6324,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515273</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179627</v>
       </c>
       <c r="Q5">
-        <v>7.415718592769458E-07</v>
+        <v>7.415717719667891E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6383,22 +6383,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265273</v>
+        <v>0.8660253737265309</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429608</v>
+        <v>0.8660254338429614</v>
       </c>
       <c r="Q6">
-        <v>1.003563409593003E-06</v>
+        <v>1.003563319448449E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999989964281</v>
+        <v>179.9999989964282</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -6442,22 +6442,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890275</v>
+        <v>0.8660253702890316</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804601</v>
+        <v>0.8660254372804603</v>
       </c>
       <c r="Q7">
-        <v>1.221889705489642E-06</v>
+        <v>1.221889606515988E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781019</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6501,22 +6501,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015274</v>
+        <v>0.8660253696015319</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679596</v>
+        <v>0.8660254379679603</v>
       </c>
       <c r="Q8">
-        <v>1.265554971363466E-06</v>
+        <v>1.265554854244043E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344366</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6560,22 +6560,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265278</v>
+        <v>0.8660253682265321</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429595</v>
+        <v>0.8660254393429602</v>
       </c>
       <c r="Q9">
-        <v>1.352885479118131E-06</v>
+        <v>1.352885379739456E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471061</v>
+        <v>179.9999986471062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6619,22 +6619,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515278</v>
+        <v>0.8660253668515322</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179589</v>
+        <v>0.8660254407179598</v>
       </c>
       <c r="Q10">
-        <v>1.440215986837607E-06</v>
+        <v>1.44021589922249E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597756</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6678,22 +6678,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640279</v>
+        <v>0.8660253661640325</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.8660254414054597</v>
       </c>
       <c r="Q11">
-        <v>1.48388124359057E-06</v>
+        <v>1.483881151451149E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161104</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6737,16 +6737,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015277</v>
+        <v>0.8660253861015289</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679646</v>
+        <v>0.866025421467965</v>
       </c>
       <c r="Q12">
-        <v>2.175887460834534E-07</v>
+        <v>2.175886971434353E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6796,16 +6796,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015277</v>
+        <v>0.8660253861015289</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679646</v>
+        <v>0.866025421467965</v>
       </c>
       <c r="Q13">
-        <v>2.175887460834534E-07</v>
+        <v>2.175886971434353E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6855,16 +6855,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390276</v>
+        <v>0.8660253840390292</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304637</v>
+        <v>0.8660254235304644</v>
       </c>
       <c r="Q14">
-        <v>3.485845545043002E-07</v>
+        <v>3.485844420451058E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -6914,22 +6914,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640274</v>
+        <v>0.8660253826640293</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054634</v>
+        <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.359150453760785E-07</v>
+        <v>4.359149751540121E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999995640763</v>
+        <v>179.9999995640764</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6973,16 +6973,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890275</v>
+        <v>0.8660253867890289</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804646</v>
+        <v>0.8660254207804651</v>
       </c>
       <c r="Q16">
-        <v>1.739234913409989E-07</v>
+        <v>1.739234426845448E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7032,16 +7032,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890275</v>
+        <v>0.8660253867890289</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804646</v>
+        <v>0.8660254207804651</v>
       </c>
       <c r="Q17">
-        <v>1.739234913409989E-07</v>
+        <v>1.739234426845448E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7091,22 +7091,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015276</v>
+        <v>0.8660253806015296</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679635</v>
       </c>
       <c r="Q18">
-        <v>5.669108717303619E-07</v>
+        <v>5.669107140128973E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330806</v>
+        <v>179.9999994330807</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -7150,22 +7150,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515279</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179621</v>
+        <v>0.8660254297179628</v>
       </c>
       <c r="Q19">
-        <v>7.415719276390054E-07</v>
+        <v>7.415717208287656E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7209,22 +7209,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890279</v>
+        <v>0.8660253757890305</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.866025431780462</v>
       </c>
       <c r="Q20">
-        <v>8.72567715172278E-07</v>
+        <v>8.725674847245856E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999991274238</v>
+        <v>179.9999991274239</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -7268,22 +7268,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015282</v>
+        <v>0.8660253751015308</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679615</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q21">
-        <v>9.162329804914787E-07</v>
+        <v>9.162327318980181E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837586</v>
+        <v>179.9999990837587</v>
       </c>
     </row>
   </sheetData>
@@ -7390,10 +7390,10 @@
         <v>0.01243796466366948</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
@@ -7526,7 +7526,7 @@
         <v>0.9840663103780253</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625839</v>
+        <v>29.02648253625838</v>
       </c>
       <c r="R4">
         <v>-91.24839358661669</v>
@@ -7585,10 +7585,10 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S5">
         <v>150.3745452978639</v>
@@ -7641,13 +7641,13 @@
         <v>0.9731342572792639</v>
       </c>
       <c r="P6">
-        <v>0.9840663104380106</v>
+        <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
         <v>29.02648253839819</v>
       </c>
       <c r="R6">
-        <v>-91.24839357891872</v>
+        <v>-91.24839357891874</v>
       </c>
       <c r="S6">
         <v>150.3745453024929</v>
@@ -7700,13 +7700,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879739</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
         <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.2483935596738</v>
+        <v>-91.24839355967381</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7759,7 +7759,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179665</v>
+        <v>0.9840663106179663</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -7824,7 +7824,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812686</v>
+        <v>-91.24839354812687</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -7877,13 +7877,13 @@
         <v>0.9731342573311894</v>
       </c>
       <c r="P10">
-        <v>0.984066310737937</v>
+        <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909722</v>
+        <v>29.02648254909721</v>
       </c>
       <c r="R10">
-        <v>-91.24839354042888</v>
+        <v>-91.24839354042889</v>
       </c>
       <c r="S10">
         <v>150.3745453102078</v>
@@ -7933,16 +7933,16 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679297</v>
+        <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.2483935365799</v>
+        <v>-91.24839353657991</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -8113,7 +8113,7 @@
         <v>0.9731342572013759</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881211</v>
+        <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
         <v>29.02648252234965</v>
@@ -8178,7 +8178,7 @@
         <v>29.02648252448946</v>
       </c>
       <c r="R15">
-        <v>-91.24839362895551</v>
+        <v>-91.24839362895553</v>
       </c>
       <c r="S15">
         <v>150.3745452924634</v>
@@ -8228,13 +8228,13 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
         <v>-91.24839365204942</v>
@@ -8287,13 +8287,13 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
         <v>-91.24839365204942</v>
@@ -8349,13 +8349,13 @@
         <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380842</v>
+        <v>0.9840663101380841</v>
       </c>
       <c r="Q18">
-        <v>29.02648252769917</v>
+        <v>29.02648252769916</v>
       </c>
       <c r="R18">
-        <v>-91.24839361740855</v>
+        <v>-91.24839361740857</v>
       </c>
       <c r="S18">
         <v>150.3745452947779</v>
@@ -8411,10 +8411,10 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197878</v>
+        <v>29.02648253197877</v>
       </c>
       <c r="R19">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S19">
         <v>150.3745452978639</v>
@@ -8464,16 +8464,16 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636864</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
       </c>
       <c r="Q20">
-        <v>29.02648253518849</v>
+        <v>29.02648253518848</v>
       </c>
       <c r="R20">
-        <v>-91.24839359046567</v>
+        <v>-91.24839359046568</v>
       </c>
       <c r="S20">
         <v>150.3745453001784</v>
@@ -8529,7 +8529,7 @@
         <v>0.9840663103780253</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625839</v>
+        <v>29.02648253625838</v>
       </c>
       <c r="R21">
         <v>-91.24839358661669</v>
@@ -8642,10 +8642,10 @@
         <v>0.01243796466366948</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.002551065603661</v>
+        <v>1.002551065603662</v>
       </c>
       <c r="O3">
         <v>0.9731342571702207</v>
@@ -8778,7 +8778,7 @@
         <v>0.9840663103780253</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625839</v>
+        <v>29.02648253625838</v>
       </c>
       <c r="R4">
         <v>-91.24839358661669</v>
@@ -8837,10 +8837,10 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q5">
-        <v>29.02648253197877</v>
+        <v>29.02648253197878</v>
       </c>
       <c r="R5">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S5">
         <v>150.3745452978639</v>
@@ -8893,13 +8893,13 @@
         <v>0.9731342572792639</v>
       </c>
       <c r="P6">
-        <v>0.9840663104380106</v>
+        <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
         <v>29.02648253839819</v>
       </c>
       <c r="R6">
-        <v>-91.24839357891872</v>
+        <v>-91.24839357891874</v>
       </c>
       <c r="S6">
         <v>150.3745453024929</v>
@@ -8952,13 +8952,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879739</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
         <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.2483935596738</v>
+        <v>-91.24839355967381</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9011,7 +9011,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179665</v>
+        <v>0.9840663106179663</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -9076,7 +9076,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812686</v>
+        <v>-91.24839354812687</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -9129,13 +9129,13 @@
         <v>0.9731342573311894</v>
       </c>
       <c r="P10">
-        <v>0.984066310737937</v>
+        <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909722</v>
+        <v>29.02648254909721</v>
       </c>
       <c r="R10">
-        <v>-91.24839354042888</v>
+        <v>-91.24839354042889</v>
       </c>
       <c r="S10">
         <v>150.3745453102078</v>
@@ -9185,16 +9185,16 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679297</v>
+        <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.2483935365799</v>
+        <v>-91.24839353657991</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -9365,7 +9365,7 @@
         <v>0.9731342572013759</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881211</v>
+        <v>0.9840663099881208</v>
       </c>
       <c r="Q14">
         <v>29.02648252234965</v>
@@ -9430,7 +9430,7 @@
         <v>29.02648252448946</v>
       </c>
       <c r="R15">
-        <v>-91.24839362895551</v>
+        <v>-91.24839362895553</v>
       </c>
       <c r="S15">
         <v>150.3745452924634</v>
@@ -9480,13 +9480,13 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
         <v>-91.24839365204942</v>
@@ -9539,13 +9539,13 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O17">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P17">
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
         <v>-91.24839365204942</v>
@@ -9601,13 +9601,13 @@
         <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380842</v>
+        <v>0.9840663101380841</v>
       </c>
       <c r="Q18">
-        <v>29.02648252769917</v>
+        <v>29.02648252769916</v>
       </c>
       <c r="R18">
-        <v>-91.24839361740855</v>
+        <v>-91.24839361740857</v>
       </c>
       <c r="S18">
         <v>150.3745452947779</v>
@@ -9663,10 +9663,10 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197878</v>
+        <v>29.02648253197877</v>
       </c>
       <c r="R19">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S19">
         <v>150.3745452978639</v>
@@ -9716,16 +9716,16 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636864</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
       </c>
       <c r="Q20">
-        <v>29.02648253518849</v>
+        <v>29.02648253518848</v>
       </c>
       <c r="R20">
-        <v>-91.24839359046567</v>
+        <v>-91.24839359046568</v>
       </c>
       <c r="S20">
         <v>150.3745453001784</v>
@@ -9781,7 +9781,7 @@
         <v>0.9840663103780253</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625839</v>
+        <v>29.02648253625838</v>
       </c>
       <c r="R21">
         <v>-91.24839358661669</v>
@@ -9885,40 +9885,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094228581761296</v>
+        <v>0.01094228581761297</v>
       </c>
       <c r="I2">
-        <v>0.1094383951790194</v>
+        <v>0.1094383951790193</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868905</v>
+        <v>0.01094540888868901</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646502</v>
+        <v>0.01094540889646506</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350725634033945</v>
+        <v>0.6350725634033947</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350674088277435</v>
+        <v>0.6350674088277437</v>
       </c>
       <c r="Q2">
-        <v>60.00252889075225</v>
+        <v>60.0025288907522</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>119.997739576553</v>
+        <v>119.9977395765531</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725807494625</v>
+        <v>0.6350725807494636</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350673930794689</v>
+        <v>0.6350673930794701</v>
       </c>
       <c r="Q3">
-        <v>60.00252962772921</v>
+        <v>60.00252962772903</v>
       </c>
       <c r="R3">
         <v>-89.99999999999631</v>
       </c>
       <c r="S3">
-        <v>119.9977405632398</v>
+        <v>119.99774056324</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10021,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350725992670596</v>
+        <v>0.6350725992670599</v>
       </c>
       <c r="O4">
         <v>1.100000023884846</v>
@@ -10030,13 +10030,13 @@
         <v>0.6350673828575905</v>
       </c>
       <c r="Q4">
-        <v>60.0025297279245</v>
+        <v>60.00252972792445</v>
       </c>
       <c r="R4">
         <v>-89.99999999999631</v>
       </c>
       <c r="S4">
-        <v>119.9977419598966</v>
+        <v>119.9977419598967</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10080,22 +10080,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725953686176</v>
+        <v>0.6350725953686189</v>
       </c>
       <c r="O5">
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.6350673850095644</v>
+        <v>0.6350673850095655</v>
       </c>
       <c r="Q5">
-        <v>60.00252970683086</v>
+        <v>60.00252970683068</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999626</v>
       </c>
       <c r="S5">
-        <v>119.9977416658635</v>
+        <v>119.9977416658637</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10139,22 +10139,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726012162797</v>
+        <v>0.635072601216281</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350673817816024</v>
+        <v>0.6350673817816036</v>
       </c>
       <c r="Q6">
-        <v>60.00252973847154</v>
+        <v>60.00252973847135</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999626</v>
+        <v>-89.99999999999625</v>
       </c>
       <c r="S6">
-        <v>119.997742106913</v>
+        <v>119.9977421069132</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10198,22 +10198,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726060893315</v>
+        <v>0.6350726060893328</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350673790916342</v>
+        <v>0.6350673790916354</v>
       </c>
       <c r="Q7">
-        <v>60.00252976483876</v>
+        <v>60.00252976483858</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999623</v>
       </c>
       <c r="S7">
-        <v>119.9977424744543</v>
+        <v>119.9977424744545</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -10257,22 +10257,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.635072607063942</v>
+        <v>0.6350726070639431</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350673785536403</v>
+        <v>0.6350673785536414</v>
       </c>
       <c r="Q8">
-        <v>60.00252977011221</v>
+        <v>60.00252977011205</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999623</v>
       </c>
       <c r="S8">
-        <v>119.9977425479625</v>
+        <v>119.9977425479627</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10316,22 +10316,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726090131624</v>
+        <v>0.6350726090131639</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350673774776533</v>
+        <v>0.6350673774776544</v>
       </c>
       <c r="Q9">
-        <v>60.0025297806591</v>
+        <v>60.00252978065892</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999623</v>
       </c>
       <c r="S9">
-        <v>119.997742694979</v>
+        <v>119.9977426949792</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -10375,22 +10375,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635072610962383</v>
+        <v>0.6350726109623844</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350673764016658</v>
+        <v>0.635067376401667</v>
       </c>
       <c r="Q10">
-        <v>60.00252979120602</v>
+        <v>60.00252979120583</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999622</v>
       </c>
       <c r="S10">
-        <v>119.9977428419955</v>
+        <v>119.9977428419957</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726119369935</v>
+        <v>0.6350726119369946</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350673758636719</v>
+        <v>0.635067375863673</v>
       </c>
       <c r="Q11">
-        <v>60.00252979647949</v>
+        <v>60.0025297964793</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999623</v>
+        <v>-89.99999999999622</v>
       </c>
       <c r="S11">
-        <v>119.9977429155037</v>
+        <v>119.9977429155039</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -10493,22 +10493,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725836732934</v>
+        <v>0.6350725836732947</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350673914654873</v>
+        <v>0.6350673914654886</v>
       </c>
       <c r="Q12">
-        <v>60.00252964354961</v>
+        <v>60.00252964354942</v>
       </c>
       <c r="R12">
         <v>-89.99999999999631</v>
       </c>
       <c r="S12">
-        <v>119.9977407837645</v>
+        <v>119.9977407837647</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -10552,22 +10552,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725836732934</v>
+        <v>0.6350725836732947</v>
       </c>
       <c r="O13">
         <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350673914654873</v>
+        <v>0.6350673914654886</v>
       </c>
       <c r="Q13">
-        <v>60.00252964354961</v>
+        <v>60.00252964354942</v>
       </c>
       <c r="R13">
         <v>-89.99999999999631</v>
       </c>
       <c r="S13">
-        <v>119.9977407837645</v>
+        <v>119.9977407837647</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -10611,22 +10611,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725865971247</v>
+        <v>0.6350725865971256</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673898515077</v>
+        <v>0.6350673898515085</v>
       </c>
       <c r="Q14">
-        <v>60.00252965936979</v>
+        <v>60.00252965936965</v>
       </c>
       <c r="R14">
         <v>-89.99999999999631</v>
       </c>
       <c r="S14">
-        <v>119.9977410042893</v>
+        <v>119.9977410042895</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -10670,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725885463452</v>
+        <v>0.6350725885463465</v>
       </c>
       <c r="O15">
         <v>1.100000023884846</v>
       </c>
       <c r="P15">
-        <v>0.6350673887755199</v>
+        <v>0.635067388775521</v>
       </c>
       <c r="Q15">
-        <v>60.00252966991674</v>
+        <v>60.00252966991656</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999629</v>
       </c>
       <c r="S15">
-        <v>119.9977411513058</v>
+        <v>119.997741151306</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10729,22 +10729,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725826986833</v>
+        <v>0.6350725826986843</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
       </c>
       <c r="P16">
-        <v>0.6350673920034813</v>
+        <v>0.6350673920034826</v>
       </c>
       <c r="Q16">
-        <v>60.00252963827612</v>
+        <v>60.00252963827594</v>
       </c>
       <c r="R16">
         <v>-89.99999999999631</v>
       </c>
       <c r="S16">
-        <v>119.9977407102563</v>
+        <v>119.9977407102565</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -10788,22 +10788,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725826986833</v>
+        <v>0.6350725826986843</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350673920034813</v>
+        <v>0.6350673920034826</v>
       </c>
       <c r="Q17">
-        <v>60.00252963827612</v>
+        <v>60.00252963827594</v>
       </c>
       <c r="R17">
         <v>-89.99999999999631</v>
       </c>
       <c r="S17">
-        <v>119.9977407102563</v>
+        <v>119.9977407102565</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -10847,22 +10847,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725914701767</v>
+        <v>0.6350725914701774</v>
       </c>
       <c r="O18">
         <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350673871615399</v>
+        <v>0.6350673871615404</v>
       </c>
       <c r="Q18">
-        <v>60.00252968573696</v>
+        <v>60.00252968573685</v>
       </c>
       <c r="R18">
         <v>-89.99999999999631</v>
       </c>
       <c r="S18">
-        <v>119.9977413718306</v>
+        <v>119.9977413718307</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -10906,22 +10906,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725953686182</v>
+        <v>0.6350725953686188</v>
       </c>
       <c r="O19">
         <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350673850095656</v>
+        <v>0.6350673850095657</v>
       </c>
       <c r="Q19">
-        <v>60.00252970683069</v>
+        <v>60.00252970683063</v>
       </c>
       <c r="R19">
         <v>-89.99999999999631</v>
       </c>
       <c r="S19">
-        <v>119.9977416658636</v>
+        <v>119.9977416658637</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -10965,22 +10965,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725982924492</v>
+        <v>0.6350725982924497</v>
       </c>
       <c r="O20">
         <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350673833955844</v>
+        <v>0.6350673833955846</v>
       </c>
       <c r="Q20">
-        <v>60.00252972265102</v>
+        <v>60.00252972265097</v>
       </c>
       <c r="R20">
         <v>-89.99999999999631</v>
       </c>
       <c r="S20">
-        <v>119.9977418863883</v>
+        <v>119.9977418863884</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -11024,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350725992670596</v>
+        <v>0.6350725992670602</v>
       </c>
       <c r="O21">
         <v>1.100000023884846</v>
@@ -11033,13 +11033,13 @@
         <v>0.6350673828575906</v>
       </c>
       <c r="Q21">
-        <v>60.00252972792448</v>
+        <v>60.00252972792442</v>
       </c>
       <c r="R21">
         <v>-89.99999999999631</v>
       </c>
       <c r="S21">
-        <v>119.9977419598966</v>
+        <v>119.9977419598967</v>
       </c>
     </row>
   </sheetData>
@@ -11137,16 +11137,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094228914518948</v>
+        <v>0.01094228914518946</v>
       </c>
       <c r="I2">
-        <v>0.1094384008158503</v>
+        <v>0.1094384008158502</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868904</v>
+        <v>0.01094540888868901</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674545</v>
+        <v>0.1094540870674546</v>
       </c>
       <c r="L2">
         <v>0.01094540889646503</v>
@@ -11164,7 +11164,7 @@
         <v>0.6350674191278792</v>
       </c>
       <c r="Q2">
-        <v>60.00252775871985</v>
+        <v>60.00252775871983</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11214,19 +11214,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725827070077</v>
+        <v>0.6350725827070074</v>
       </c>
       <c r="O3">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P3">
-        <v>0.6350674026296865</v>
+        <v>0.6350674026296866</v>
       </c>
       <c r="Q3">
-        <v>60.00252853079097</v>
+        <v>60.00252853079095</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999631</v>
+        <v>-89.99999999999632</v>
       </c>
       <c r="S3">
         <v>119.9977412647339</v>
@@ -11273,19 +11273,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350726012246054</v>
+        <v>0.6350726012246045</v>
       </c>
       <c r="O4">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350673924078075</v>
+        <v>0.6350673924078076</v>
       </c>
       <c r="Q4">
-        <v>60.00252863098629</v>
+        <v>60.00252863098631</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S4">
         <v>119.9977426613907</v>
@@ -11332,16 +11332,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725973261627</v>
+        <v>0.6350725973261622</v>
       </c>
       <c r="O5">
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.6350673945597824</v>
+        <v>0.6350673945597823</v>
       </c>
       <c r="Q5">
-        <v>60.00252860989262</v>
+        <v>60.00252860989264</v>
       </c>
       <c r="R5">
         <v>-89.99999999999629</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726031738245</v>
+        <v>0.6350726031738241</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350673913318203</v>
+        <v>0.6350673913318206</v>
       </c>
       <c r="Q6">
         <v>60.00252864153334</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726080468763</v>
+        <v>0.6350726080468757</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
@@ -11465,7 +11465,7 @@
         <v>-89.99999999999625</v>
       </c>
       <c r="S7">
-        <v>119.9977431759484</v>
+        <v>119.9977431759483</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -11509,19 +11509,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726090214865</v>
+        <v>0.6350726090214861</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350673881038584</v>
+        <v>0.6350673881038583</v>
       </c>
       <c r="Q8">
         <v>60.00252867317403</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999625</v>
+        <v>-89.99999999999626</v>
       </c>
       <c r="S8">
         <v>119.9977432494566</v>
@@ -11568,16 +11568,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726109707071</v>
+        <v>0.6350726109707067</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350673870278712</v>
+        <v>0.6350673870278714</v>
       </c>
       <c r="Q9">
-        <v>60.00252868372093</v>
+        <v>60.00252868372092</v>
       </c>
       <c r="R9">
         <v>-89.99999999999625</v>
@@ -11627,13 +11627,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350726129199277</v>
+        <v>0.6350726129199272</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350673859518837</v>
+        <v>0.6350673859518838</v>
       </c>
       <c r="Q10">
         <v>60.00252869426785</v>
@@ -11686,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.635072613894538</v>
+        <v>0.6350726138945374</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
@@ -11695,13 +11695,13 @@
         <v>0.6350673854138899</v>
       </c>
       <c r="Q11">
-        <v>60.00252869954132</v>
+        <v>60.00252869954134</v>
       </c>
       <c r="R11">
         <v>-89.99999999999625</v>
       </c>
       <c r="S11">
-        <v>119.9977436169978</v>
+        <v>119.9977436169977</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725856308388</v>
+        <v>0.6350725856308381</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725856308388</v>
+        <v>0.6350725856308381</v>
       </c>
       <c r="O13">
         <v>1.100000023884846</v>
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725885546702</v>
+        <v>0.6350725885546694</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
@@ -11872,7 +11872,7 @@
         <v>0.6350673994017251</v>
       </c>
       <c r="Q14">
-        <v>60.00252856243157</v>
+        <v>60.00252856243158</v>
       </c>
       <c r="R14">
         <v>-89.99999999999631</v>
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725905038903</v>
+        <v>0.63507259050389</v>
       </c>
       <c r="O15">
         <v>1.100000023884846</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725846562284</v>
+        <v>0.6350725846562278</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
@@ -11996,7 +11996,7 @@
         <v>-89.99999999999631</v>
       </c>
       <c r="S16">
-        <v>119.9977414117504</v>
+        <v>119.9977414117503</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -12040,7 +12040,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725846562284</v>
+        <v>0.6350725846562278</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
@@ -12055,7 +12055,7 @@
         <v>-89.99999999999631</v>
       </c>
       <c r="S17">
-        <v>119.9977414117504</v>
+        <v>119.9977414117503</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725934277222</v>
+        <v>0.6350725934277214</v>
       </c>
       <c r="O18">
         <v>1.100000023884846</v>
@@ -12108,7 +12108,7 @@
         <v>0.6350673967117569</v>
       </c>
       <c r="Q18">
-        <v>60.00252858879876</v>
+        <v>60.00252858879877</v>
       </c>
       <c r="R18">
         <v>-89.99999999999631</v>
@@ -12158,13 +12158,13 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725973261636</v>
+        <v>0.6350725973261629</v>
       </c>
       <c r="O19">
         <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350673945597822</v>
+        <v>0.6350673945597824</v>
       </c>
       <c r="Q19">
         <v>60.00252860989253</v>
@@ -12217,13 +12217,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350726002499949</v>
+        <v>0.6350726002499941</v>
       </c>
       <c r="O20">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350673929458013</v>
+        <v>0.6350673929458014</v>
       </c>
       <c r="Q20">
         <v>60.00252862571285</v>
@@ -12232,7 +12232,7 @@
         <v>-89.99999999999631</v>
       </c>
       <c r="S20">
-        <v>119.9977425878825</v>
+        <v>119.9977425878824</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -12276,19 +12276,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350726012246053</v>
+        <v>0.6350726012246045</v>
       </c>
       <c r="O21">
         <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.6350673924078075</v>
+        <v>0.6350673924078076</v>
       </c>
       <c r="Q21">
-        <v>60.0025286309863</v>
+        <v>60.00252863098633</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999632</v>
+        <v>-89.99999999999631</v>
       </c>
       <c r="S21">
         <v>119.9977426613907</v>
@@ -12389,19 +12389,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094228581761296</v>
+        <v>0.01094228581761297</v>
       </c>
       <c r="I2">
-        <v>0.1094383951790194</v>
+        <v>0.1094383951790193</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868905</v>
+        <v>0.01094540888868901</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646502</v>
+        <v>0.01094540889646506</v>
       </c>
       <c r="M2">
         <v>0.1094540870674483</v>
@@ -12770,7 +12770,7 @@
         <v>1.096496879122875</v>
       </c>
       <c r="Q8">
-        <v>29.92212938001848</v>
+        <v>29.92212938001849</v>
       </c>
       <c r="R8">
         <v>-89.99999999999636</v>
@@ -14137,16 +14137,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094228914518948</v>
+        <v>0.01094228914518946</v>
       </c>
       <c r="I2">
-        <v>0.1094384008158503</v>
+        <v>0.1094384008158502</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868904</v>
+        <v>0.01094540888868901</v>
       </c>
       <c r="K2">
-        <v>0.1094540870674545</v>
+        <v>0.1094540870674546</v>
       </c>
       <c r="L2">
         <v>0.01094540889646503</v>
@@ -15371,7 +15371,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.19055530911371</v>
+        <v>46.19055530911373</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15380,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.681295417351</v>
+        <v>266.6812954173511</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15395,34 +15395,34 @@
         <v>0.124359387381354</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526079</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940179</v>
+        <v>0.1243796443940178</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911726</v>
+        <v>0.01243796465911721</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773371024418512</v>
+        <v>0.5773371024418515</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P2">
-        <v>0.5773317853121227</v>
+        <v>0.5773317853121233</v>
       </c>
       <c r="Q2">
-        <v>60.00287266858949</v>
+        <v>60.00287266858945</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9974319554422</v>
+        <v>119.9974319554423</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -15469,19 +15469,19 @@
         <v>0.5773371188178168</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P3">
-        <v>0.5773317704445828</v>
+        <v>0.5773317704445857</v>
       </c>
       <c r="Q3">
-        <v>60.00287343391516</v>
+        <v>60.00287343391485</v>
       </c>
       <c r="R3">
         <v>-89.99999999999636</v>
       </c>
       <c r="S3">
-        <v>119.9974329800915</v>
+        <v>119.9974329800917</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -15525,22 +15525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371391211254</v>
+        <v>0.5773371391211236</v>
       </c>
       <c r="O4">
         <v>0.9999999999962927</v>
       </c>
       <c r="P4">
-        <v>0.5773317646209463</v>
+        <v>0.5773317646209477</v>
       </c>
       <c r="Q4">
-        <v>60.00287293773111</v>
+        <v>60.00287293773104</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S4">
-        <v>119.9974349731277</v>
+        <v>119.9974349731276</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -15584,22 +15584,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371348467453</v>
+        <v>0.5773371348467435</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P5">
-        <v>0.5773317658469731</v>
+        <v>0.5773317658469782</v>
       </c>
       <c r="Q5">
-        <v>60.00287304219107</v>
+        <v>60.00287304219059</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S5">
-        <v>119.9974345535411</v>
+        <v>119.9974345535412</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -15643,22 +15643,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371412583166</v>
+        <v>0.5773371412583141</v>
       </c>
       <c r="O6">
         <v>0.9999999999962925</v>
       </c>
       <c r="P6">
-        <v>0.5773317640079294</v>
+        <v>0.5773317640079354</v>
       </c>
       <c r="Q6">
-        <v>60.00287288550143</v>
+        <v>60.0028728855009</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S6">
-        <v>119.997435182921</v>
+        <v>119.9974351829211</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -15702,19 +15702,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577337146601293</v>
+        <v>0.5773371466012898</v>
       </c>
       <c r="O7">
         <v>0.9999999999962925</v>
       </c>
       <c r="P7">
-        <v>0.5773317624753932</v>
+        <v>0.5773317624753997</v>
       </c>
       <c r="Q7">
-        <v>60.00287275492673</v>
+        <v>60.00287275492615</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S7">
         <v>119.9974357074042</v>
@@ -15761,19 +15761,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773371476698881</v>
+        <v>0.5773371476698848</v>
       </c>
       <c r="O8">
         <v>0.9999999999962925</v>
       </c>
       <c r="P8">
-        <v>0.5773317621688863</v>
+        <v>0.5773317621688925</v>
       </c>
       <c r="Q8">
-        <v>60.00287272881175</v>
+        <v>60.00287272881122</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S8">
         <v>119.9974358123009</v>
@@ -15820,22 +15820,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371498070787</v>
+        <v>0.5773371498070751</v>
       </c>
       <c r="O9">
         <v>0.9999999999962925</v>
       </c>
       <c r="P9">
-        <v>0.5773317615558716</v>
+        <v>0.5773317615558784</v>
       </c>
       <c r="Q9">
-        <v>60.00287267658187</v>
+        <v>60.0028726765813</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S9">
-        <v>119.9974360220942</v>
+        <v>119.9974360220941</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -15879,22 +15879,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371519442692</v>
+        <v>0.5773371519442654</v>
       </c>
       <c r="O10">
         <v>0.9999999999962925</v>
       </c>
       <c r="P10">
-        <v>0.5773317609428574</v>
+        <v>0.5773317609428641</v>
       </c>
       <c r="Q10">
-        <v>60.00287262435195</v>
+        <v>60.0028726243514</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S10">
-        <v>119.9974362318875</v>
+        <v>119.9974362318874</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -15938,16 +15938,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371530128643</v>
+        <v>0.5773371530128606</v>
       </c>
       <c r="O11">
         <v>0.9999999999962925</v>
       </c>
       <c r="P11">
-        <v>0.5773317606363505</v>
+        <v>0.577331760636357</v>
       </c>
       <c r="Q11">
-        <v>60.00287259823698</v>
+        <v>60.00287259823644</v>
       </c>
       <c r="R11">
         <v>-89.99999999999636</v>
@@ -15997,22 +15997,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773371220236024</v>
+        <v>0.5773371220236022</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P12">
-        <v>0.5773317695250612</v>
+        <v>0.5773317695250642</v>
       </c>
       <c r="Q12">
-        <v>60.00287335557029</v>
+        <v>60.00287335557</v>
       </c>
       <c r="R12">
         <v>-89.99999999999636</v>
       </c>
       <c r="S12">
-        <v>119.9974332947815</v>
+        <v>119.9974332947816</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -16056,22 +16056,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371220236024</v>
+        <v>0.5773371220236022</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P13">
-        <v>0.5773317695250612</v>
+        <v>0.5773317695250642</v>
       </c>
       <c r="Q13">
-        <v>60.00287335557029</v>
+        <v>60.00287335557</v>
       </c>
       <c r="R13">
         <v>-89.99999999999636</v>
       </c>
       <c r="S13">
-        <v>119.9974332947815</v>
+        <v>119.9974332947816</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -16115,16 +16115,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.577337125229388</v>
+        <v>0.5773371252293874</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P14">
-        <v>0.5773317686055396</v>
+        <v>0.5773317686055424</v>
       </c>
       <c r="Q14">
-        <v>60.00287327722545</v>
+        <v>60.00287327722521</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -16174,22 +16174,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773371273665787</v>
+        <v>0.5773371273665776</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P15">
-        <v>0.5773317679925243</v>
+        <v>0.5773317679925284</v>
       </c>
       <c r="Q15">
-        <v>60.00287322499563</v>
+        <v>60.00287322499524</v>
       </c>
       <c r="R15">
         <v>-89.99999999999636</v>
       </c>
       <c r="S15">
-        <v>119.9974338192646</v>
+        <v>119.9974338192647</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -16233,22 +16233,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773371209550074</v>
+        <v>0.5773371209550069</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P16">
-        <v>0.5773317698315683</v>
+        <v>0.5773317698315714</v>
       </c>
       <c r="Q16">
-        <v>60.00287338168524</v>
+        <v>60.00287338168495</v>
       </c>
       <c r="R16">
         <v>-89.99999999999636</v>
       </c>
       <c r="S16">
-        <v>119.9974331898848</v>
+        <v>119.9974331898849</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -16292,22 +16292,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371209550074</v>
+        <v>0.5773371209550069</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P17">
-        <v>0.5773317698315683</v>
+        <v>0.5773317698315714</v>
       </c>
       <c r="Q17">
-        <v>60.00287338168524</v>
+        <v>60.00287338168495</v>
       </c>
       <c r="R17">
         <v>-89.99999999999636</v>
       </c>
       <c r="S17">
-        <v>119.9974331898848</v>
+        <v>119.9974331898849</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -16351,19 +16351,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371305723639</v>
+        <v>0.5773371305723628</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P18">
-        <v>0.5773317670730035</v>
+        <v>0.5773317670730059</v>
       </c>
       <c r="Q18">
-        <v>60.0028731466507</v>
+        <v>60.00287314665052</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S18">
         <v>119.9974341339546</v>
@@ -16410,19 +16410,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371348467446</v>
+        <v>0.5773371348467433</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962926</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P19">
-        <v>0.5773317658469747</v>
+        <v>0.5773317658469769</v>
       </c>
       <c r="Q19">
-        <v>60.00287304219093</v>
+        <v>60.00287304219077</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>119.9974345535411</v>
@@ -16469,22 +16469,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371380525303</v>
+        <v>0.5773371380525286</v>
       </c>
       <c r="O20">
         <v>0.9999999999962927</v>
       </c>
       <c r="P20">
-        <v>0.5773317649274534</v>
+        <v>0.577331764927455</v>
       </c>
       <c r="Q20">
-        <v>60.00287296384604</v>
+        <v>60.00287296384599</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S20">
-        <v>119.9974348682311</v>
+        <v>119.997434868231</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -16528,22 +16528,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371391211253</v>
+        <v>0.5773371391211237</v>
       </c>
       <c r="O21">
         <v>0.9999999999962927</v>
       </c>
       <c r="P21">
-        <v>0.5773317646209464</v>
+        <v>0.5773317646209478</v>
       </c>
       <c r="Q21">
-        <v>60.00287293773108</v>
+        <v>60.00287293773103</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S21">
-        <v>119.9974349731277</v>
+        <v>119.9974349731276</v>
       </c>
     </row>
   </sheetData>
@@ -16623,7 +16623,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.19055530911371</v>
+        <v>46.19055530911373</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.681295417351</v>
+        <v>266.6812954173511</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16647,34 +16647,34 @@
         <v>0.124359387381354</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526079</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940179</v>
+        <v>0.1243796443940178</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911726</v>
+        <v>0.01243796465911721</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773371024418512</v>
+        <v>0.5773371024418515</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P2">
-        <v>0.5773317853121227</v>
+        <v>0.5773317853121233</v>
       </c>
       <c r="Q2">
-        <v>60.00287266858949</v>
+        <v>60.00287266858945</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9974319554422</v>
+        <v>119.9974319554423</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -16721,19 +16721,19 @@
         <v>0.5773371188178168</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P3">
-        <v>0.5773317704445828</v>
+        <v>0.5773317704445857</v>
       </c>
       <c r="Q3">
-        <v>60.00287343391516</v>
+        <v>60.00287343391485</v>
       </c>
       <c r="R3">
         <v>-89.99999999999636</v>
       </c>
       <c r="S3">
-        <v>119.9974329800915</v>
+        <v>119.9974329800917</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -16777,22 +16777,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371391211254</v>
+        <v>0.5773371391211236</v>
       </c>
       <c r="O4">
         <v>0.9999999999962927</v>
       </c>
       <c r="P4">
-        <v>0.5773317646209463</v>
+        <v>0.5773317646209477</v>
       </c>
       <c r="Q4">
-        <v>60.00287293773111</v>
+        <v>60.00287293773104</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S4">
-        <v>119.9974349731277</v>
+        <v>119.9974349731276</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -16836,22 +16836,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371348467453</v>
+        <v>0.5773371348467435</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P5">
-        <v>0.5773317658469731</v>
+        <v>0.5773317658469782</v>
       </c>
       <c r="Q5">
-        <v>60.00287304219107</v>
+        <v>60.00287304219059</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S5">
-        <v>119.9974345535411</v>
+        <v>119.9974345535412</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -16895,22 +16895,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371412583166</v>
+        <v>0.5773371412583141</v>
       </c>
       <c r="O6">
         <v>0.9999999999962925</v>
       </c>
       <c r="P6">
-        <v>0.5773317640079294</v>
+        <v>0.5773317640079354</v>
       </c>
       <c r="Q6">
-        <v>60.00287288550143</v>
+        <v>60.0028728855009</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S6">
-        <v>119.997435182921</v>
+        <v>119.9974351829211</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -16954,19 +16954,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577337146601293</v>
+        <v>0.5773371466012898</v>
       </c>
       <c r="O7">
         <v>0.9999999999962925</v>
       </c>
       <c r="P7">
-        <v>0.5773317624753932</v>
+        <v>0.5773317624753997</v>
       </c>
       <c r="Q7">
-        <v>60.00287275492673</v>
+        <v>60.00287275492615</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S7">
         <v>119.9974357074042</v>
@@ -17013,19 +17013,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773371476698881</v>
+        <v>0.5773371476698848</v>
       </c>
       <c r="O8">
         <v>0.9999999999962925</v>
       </c>
       <c r="P8">
-        <v>0.5773317621688863</v>
+        <v>0.5773317621688925</v>
       </c>
       <c r="Q8">
-        <v>60.00287272881175</v>
+        <v>60.00287272881122</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S8">
         <v>119.9974358123009</v>
@@ -17072,22 +17072,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371498070787</v>
+        <v>0.5773371498070751</v>
       </c>
       <c r="O9">
         <v>0.9999999999962925</v>
       </c>
       <c r="P9">
-        <v>0.5773317615558716</v>
+        <v>0.5773317615558784</v>
       </c>
       <c r="Q9">
-        <v>60.00287267658187</v>
+        <v>60.0028726765813</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S9">
-        <v>119.9974360220942</v>
+        <v>119.9974360220941</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -17131,22 +17131,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371519442692</v>
+        <v>0.5773371519442654</v>
       </c>
       <c r="O10">
         <v>0.9999999999962925</v>
       </c>
       <c r="P10">
-        <v>0.5773317609428574</v>
+        <v>0.5773317609428641</v>
       </c>
       <c r="Q10">
-        <v>60.00287262435195</v>
+        <v>60.0028726243514</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S10">
-        <v>119.9974362318875</v>
+        <v>119.9974362318874</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -17190,16 +17190,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371530128643</v>
+        <v>0.5773371530128606</v>
       </c>
       <c r="O11">
         <v>0.9999999999962925</v>
       </c>
       <c r="P11">
-        <v>0.5773317606363505</v>
+        <v>0.577331760636357</v>
       </c>
       <c r="Q11">
-        <v>60.00287259823698</v>
+        <v>60.00287259823644</v>
       </c>
       <c r="R11">
         <v>-89.99999999999636</v>
@@ -17249,22 +17249,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773371220236024</v>
+        <v>0.5773371220236022</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P12">
-        <v>0.5773317695250612</v>
+        <v>0.5773317695250642</v>
       </c>
       <c r="Q12">
-        <v>60.00287335557029</v>
+        <v>60.00287335557</v>
       </c>
       <c r="R12">
         <v>-89.99999999999636</v>
       </c>
       <c r="S12">
-        <v>119.9974332947815</v>
+        <v>119.9974332947816</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -17308,22 +17308,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371220236024</v>
+        <v>0.5773371220236022</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P13">
-        <v>0.5773317695250612</v>
+        <v>0.5773317695250642</v>
       </c>
       <c r="Q13">
-        <v>60.00287335557029</v>
+        <v>60.00287335557</v>
       </c>
       <c r="R13">
         <v>-89.99999999999636</v>
       </c>
       <c r="S13">
-        <v>119.9974332947815</v>
+        <v>119.9974332947816</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -17367,16 +17367,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.577337125229388</v>
+        <v>0.5773371252293874</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P14">
-        <v>0.5773317686055396</v>
+        <v>0.5773317686055424</v>
       </c>
       <c r="Q14">
-        <v>60.00287327722545</v>
+        <v>60.00287327722521</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -17426,22 +17426,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773371273665787</v>
+        <v>0.5773371273665776</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962926</v>
       </c>
       <c r="P15">
-        <v>0.5773317679925243</v>
+        <v>0.5773317679925284</v>
       </c>
       <c r="Q15">
-        <v>60.00287322499563</v>
+        <v>60.00287322499524</v>
       </c>
       <c r="R15">
         <v>-89.99999999999636</v>
       </c>
       <c r="S15">
-        <v>119.9974338192646</v>
+        <v>119.9974338192647</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -17485,22 +17485,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773371209550074</v>
+        <v>0.5773371209550069</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P16">
-        <v>0.5773317698315683</v>
+        <v>0.5773317698315714</v>
       </c>
       <c r="Q16">
-        <v>60.00287338168524</v>
+        <v>60.00287338168495</v>
       </c>
       <c r="R16">
         <v>-89.99999999999636</v>
       </c>
       <c r="S16">
-        <v>119.9974331898848</v>
+        <v>119.9974331898849</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -17544,22 +17544,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371209550074</v>
+        <v>0.5773371209550069</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P17">
-        <v>0.5773317698315683</v>
+        <v>0.5773317698315714</v>
       </c>
       <c r="Q17">
-        <v>60.00287338168524</v>
+        <v>60.00287338168495</v>
       </c>
       <c r="R17">
         <v>-89.99999999999636</v>
       </c>
       <c r="S17">
-        <v>119.9974331898848</v>
+        <v>119.9974331898849</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -17603,19 +17603,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371305723639</v>
+        <v>0.5773371305723628</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P18">
-        <v>0.5773317670730035</v>
+        <v>0.5773317670730059</v>
       </c>
       <c r="Q18">
-        <v>60.0028731466507</v>
+        <v>60.00287314665052</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S18">
         <v>119.9974341339546</v>
@@ -17662,19 +17662,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371348467446</v>
+        <v>0.5773371348467433</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962926</v>
+        <v>0.9999999999962927</v>
       </c>
       <c r="P19">
-        <v>0.5773317658469747</v>
+        <v>0.5773317658469769</v>
       </c>
       <c r="Q19">
-        <v>60.00287304219093</v>
+        <v>60.00287304219077</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>119.9974345535411</v>
@@ -17721,22 +17721,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371380525303</v>
+        <v>0.5773371380525286</v>
       </c>
       <c r="O20">
         <v>0.9999999999962927</v>
       </c>
       <c r="P20">
-        <v>0.5773317649274534</v>
+        <v>0.577331764927455</v>
       </c>
       <c r="Q20">
-        <v>60.00287296384604</v>
+        <v>60.00287296384599</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S20">
-        <v>119.9974348682311</v>
+        <v>119.997434868231</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -17780,22 +17780,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371391211253</v>
+        <v>0.5773371391211237</v>
       </c>
       <c r="O21">
         <v>0.9999999999962927</v>
       </c>
       <c r="P21">
-        <v>0.5773317646209464</v>
+        <v>0.5773317646209478</v>
       </c>
       <c r="Q21">
-        <v>60.00287293773108</v>
+        <v>60.00287293773103</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S21">
-        <v>119.9974349731277</v>
+        <v>119.9974349731276</v>
       </c>
     </row>
   </sheetData>
@@ -17899,13 +17899,13 @@
         <v>0.124359387381354</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526079</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940179</v>
+        <v>0.1243796443940178</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911726</v>
+        <v>0.01243796465911721</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -17976,10 +17976,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P3">
-        <v>0.9963798889736601</v>
+        <v>0.9963798889736603</v>
       </c>
       <c r="Q3">
-        <v>29.91230370363239</v>
+        <v>29.91230370363238</v>
       </c>
       <c r="R3">
         <v>-89.99999999999636</v>
@@ -18038,7 +18038,7 @@
         <v>0.9963798888174682</v>
       </c>
       <c r="Q4">
-        <v>29.91230372089855</v>
+        <v>29.91230372089854</v>
       </c>
       <c r="R4">
         <v>-89.99999999999636</v>
@@ -18094,10 +18094,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P5">
-        <v>0.9963798888503507</v>
+        <v>0.9963798888503508</v>
       </c>
       <c r="Q5">
-        <v>29.91230371726357</v>
+        <v>29.91230371726355</v>
       </c>
       <c r="R5">
         <v>-89.99999999999636</v>
@@ -18153,10 +18153,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P6">
-        <v>0.9963798888010269</v>
+        <v>0.996379888801027</v>
       </c>
       <c r="Q6">
-        <v>29.91230372271604</v>
+        <v>29.91230372271603</v>
       </c>
       <c r="R6">
         <v>-89.99999999999636</v>
@@ -18206,16 +18206,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480078155631</v>
+        <v>0.9900480078155632</v>
       </c>
       <c r="O7">
         <v>0.9999999999994823</v>
       </c>
       <c r="P7">
-        <v>0.9963798887599237</v>
+        <v>0.996379888759924</v>
       </c>
       <c r="Q7">
-        <v>29.91230372725976</v>
+        <v>29.91230372725975</v>
       </c>
       <c r="R7">
         <v>-89.99999999999636</v>
@@ -18274,7 +18274,7 @@
         <v>0.9963798887517031</v>
       </c>
       <c r="Q8">
-        <v>29.91230372816851</v>
+        <v>29.9123037281685</v>
       </c>
       <c r="R8">
         <v>-89.99999999999636</v>
@@ -18330,10 +18330,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P9">
-        <v>0.9963798887352618</v>
+        <v>0.996379888735262</v>
       </c>
       <c r="Q9">
-        <v>29.912303729986</v>
+        <v>29.91230372998599</v>
       </c>
       <c r="R9">
         <v>-89.99999999999636</v>
@@ -18389,10 +18389,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188205</v>
+        <v>0.9963798887188207</v>
       </c>
       <c r="Q10">
-        <v>29.91230373180349</v>
+        <v>29.91230373180348</v>
       </c>
       <c r="R10">
         <v>-89.99999999999636</v>
@@ -18442,16 +18442,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9900480078817464</v>
+        <v>0.9900480078817463</v>
       </c>
       <c r="O11">
         <v>0.9999999999994823</v>
       </c>
       <c r="P11">
-        <v>0.9963798887106</v>
+        <v>0.9963798887106001</v>
       </c>
       <c r="Q11">
-        <v>29.91230373271224</v>
+        <v>29.91230373271223</v>
       </c>
       <c r="R11">
         <v>-89.99999999999636</v>
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076170138</v>
+        <v>0.9900480076170136</v>
       </c>
       <c r="O15">
         <v>0.9999999999994823</v>
@@ -18743,7 +18743,7 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P16">
-        <v>0.9963798889572187</v>
+        <v>0.9963798889572191</v>
       </c>
       <c r="Q16">
         <v>29.91230370544987</v>
@@ -18802,7 +18802,7 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P17">
-        <v>0.9963798889572187</v>
+        <v>0.9963798889572191</v>
       </c>
       <c r="Q17">
         <v>29.91230370544987</v>
@@ -18864,7 +18864,7 @@
         <v>0.9963798888832331</v>
       </c>
       <c r="Q18">
-        <v>29.91230371362858</v>
+        <v>29.91230371362857</v>
       </c>
       <c r="R18">
         <v>-89.99999999999636</v>
@@ -18920,10 +18920,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P19">
-        <v>0.9963798888503507</v>
+        <v>0.9963798888503508</v>
       </c>
       <c r="Q19">
-        <v>29.91230371726357</v>
+        <v>29.91230371726356</v>
       </c>
       <c r="R19">
         <v>-89.99999999999636</v>
@@ -18979,7 +18979,7 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P20">
-        <v>0.9963798888256887</v>
+        <v>0.9963798888256888</v>
       </c>
       <c r="Q20">
         <v>29.9123037199898</v>
@@ -19041,7 +19041,7 @@
         <v>0.9963798888174682</v>
       </c>
       <c r="Q21">
-        <v>29.91230372089855</v>
+        <v>29.91230372089854</v>
       </c>
       <c r="R21">
         <v>-89.99999999999636</v>
@@ -19151,13 +19151,13 @@
         <v>0.124359387381354</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526079</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940179</v>
+        <v>0.1243796443940178</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911726</v>
+        <v>0.01243796465911721</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -19228,10 +19228,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P3">
-        <v>0.9963798889736601</v>
+        <v>0.9963798889736603</v>
       </c>
       <c r="Q3">
-        <v>29.91230370363239</v>
+        <v>29.91230370363238</v>
       </c>
       <c r="R3">
         <v>-89.99999999999636</v>
@@ -19290,7 +19290,7 @@
         <v>0.9963798888174682</v>
       </c>
       <c r="Q4">
-        <v>29.91230372089855</v>
+        <v>29.91230372089854</v>
       </c>
       <c r="R4">
         <v>-89.99999999999636</v>
@@ -19346,10 +19346,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P5">
-        <v>0.9963798888503507</v>
+        <v>0.9963798888503508</v>
       </c>
       <c r="Q5">
-        <v>29.91230371726357</v>
+        <v>29.91230371726355</v>
       </c>
       <c r="R5">
         <v>-89.99999999999636</v>
@@ -19405,10 +19405,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P6">
-        <v>0.9963798888010269</v>
+        <v>0.996379888801027</v>
       </c>
       <c r="Q6">
-        <v>29.91230372271604</v>
+        <v>29.91230372271603</v>
       </c>
       <c r="R6">
         <v>-89.99999999999636</v>
@@ -19458,16 +19458,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480078155631</v>
+        <v>0.9900480078155632</v>
       </c>
       <c r="O7">
         <v>0.9999999999994823</v>
       </c>
       <c r="P7">
-        <v>0.9963798887599237</v>
+        <v>0.996379888759924</v>
       </c>
       <c r="Q7">
-        <v>29.91230372725976</v>
+        <v>29.91230372725975</v>
       </c>
       <c r="R7">
         <v>-89.99999999999636</v>
@@ -19526,7 +19526,7 @@
         <v>0.9963798887517031</v>
       </c>
       <c r="Q8">
-        <v>29.91230372816851</v>
+        <v>29.9123037281685</v>
       </c>
       <c r="R8">
         <v>-89.99999999999636</v>
@@ -19582,10 +19582,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P9">
-        <v>0.9963798887352618</v>
+        <v>0.996379888735262</v>
       </c>
       <c r="Q9">
-        <v>29.912303729986</v>
+        <v>29.91230372998599</v>
       </c>
       <c r="R9">
         <v>-89.99999999999636</v>
@@ -19641,10 +19641,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188205</v>
+        <v>0.9963798887188207</v>
       </c>
       <c r="Q10">
-        <v>29.91230373180349</v>
+        <v>29.91230373180348</v>
       </c>
       <c r="R10">
         <v>-89.99999999999636</v>
@@ -19694,16 +19694,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9900480078817464</v>
+        <v>0.9900480078817463</v>
       </c>
       <c r="O11">
         <v>0.9999999999994823</v>
       </c>
       <c r="P11">
-        <v>0.9963798887106</v>
+        <v>0.9963798887106001</v>
       </c>
       <c r="Q11">
-        <v>29.91230373271224</v>
+        <v>29.91230373271223</v>
       </c>
       <c r="R11">
         <v>-89.99999999999636</v>
@@ -19930,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076170138</v>
+        <v>0.9900480076170136</v>
       </c>
       <c r="O15">
         <v>0.9999999999994823</v>
@@ -19995,7 +19995,7 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P16">
-        <v>0.9963798889572187</v>
+        <v>0.9963798889572191</v>
       </c>
       <c r="Q16">
         <v>29.91230370544987</v>
@@ -20054,7 +20054,7 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P17">
-        <v>0.9963798889572187</v>
+        <v>0.9963798889572191</v>
       </c>
       <c r="Q17">
         <v>29.91230370544987</v>
@@ -20116,7 +20116,7 @@
         <v>0.9963798888832331</v>
       </c>
       <c r="Q18">
-        <v>29.91230371362858</v>
+        <v>29.91230371362857</v>
       </c>
       <c r="R18">
         <v>-89.99999999999636</v>
@@ -20172,10 +20172,10 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P19">
-        <v>0.9963798888503507</v>
+        <v>0.9963798888503508</v>
       </c>
       <c r="Q19">
-        <v>29.91230371726357</v>
+        <v>29.91230371726356</v>
       </c>
       <c r="R19">
         <v>-89.99999999999636</v>
@@ -20231,7 +20231,7 @@
         <v>0.9999999999994823</v>
       </c>
       <c r="P20">
-        <v>0.9963798888256887</v>
+        <v>0.9963798888256888</v>
       </c>
       <c r="Q20">
         <v>29.9123037199898</v>
@@ -20293,7 +20293,7 @@
         <v>0.9963798888174682</v>
       </c>
       <c r="Q21">
-        <v>29.91230372089855</v>
+        <v>29.91230372089854</v>
       </c>
       <c r="R21">
         <v>-89.99999999999636</v>
@@ -20385,7 +20385,7 @@
         <v>57.73618912370605</v>
       </c>
       <c r="D2">
-        <v>57.73665774178134</v>
+        <v>57.73665774178132</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>333.3400433255483</v>
       </c>
       <c r="G2">
-        <v>333.3427488932675</v>
+        <v>333.3427488932674</v>
       </c>
       <c r="H2">
         <v>0.0109422858176125</v>
@@ -20403,13 +20403,13 @@
         <v>0.1094383951790285</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714031</v>
+        <v>0.01094540889714032</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -20424,7 +20424,7 @@
         <v>0.6350546596958422</v>
       </c>
       <c r="Q2">
-        <v>0.0002685177530281873</v>
+        <v>0.0002685177530165864</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20474,22 +20474,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546439329167</v>
+        <v>0.6350546439329166</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546770408773</v>
+        <v>0.635054677040877</v>
       </c>
       <c r="Q3">
-        <v>0.0002695045503323014</v>
+        <v>0.0002695045503175387</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9997307441984</v>
+        <v>-179.9997307441983</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -20533,22 +20533,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546337126169</v>
+        <v>0.6350546337126165</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350546955580113</v>
+        <v>0.6350546955580106</v>
       </c>
       <c r="Q4">
-        <v>0.0002709012729804879</v>
+        <v>0.0002709012730250925</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9997306438627</v>
+        <v>-179.9997306438626</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -20592,22 +20592,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546358642576</v>
+        <v>0.6350546358642578</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350546916596659</v>
+        <v>0.6350546916596658</v>
       </c>
       <c r="Q5">
-        <v>0.000270607225931839</v>
+        <v>0.0002706072259277161</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.999730664986</v>
+        <v>-179.9997306649859</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -20651,22 +20651,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350546326367941</v>
+        <v>0.6350546326367942</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350546975071815</v>
+        <v>0.6350546975071814</v>
       </c>
       <c r="Q6">
-        <v>0.0002710482961891954</v>
+        <v>0.0002710482961850726</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.999730633301</v>
+        <v>-179.9997306333009</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -20710,22 +20710,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546299472413</v>
+        <v>0.6350546299472415</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547023801112</v>
+        <v>0.6350547023801113</v>
       </c>
       <c r="Q7">
-        <v>0.0002714158547469493</v>
+        <v>0.0002714158547370434</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9997306068969</v>
+        <v>-179.9997306068968</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -20769,7 +20769,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350546294093307</v>
+        <v>0.635054629409331</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -20778,13 +20778,13 @@
         <v>0.6350547033546972</v>
       </c>
       <c r="Q8">
-        <v>0.0002714893664537683</v>
+        <v>0.000271489366443851</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.999730601616</v>
+        <v>-179.9997306016159</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -20828,22 +20828,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546283335091</v>
+        <v>0.6350546283335095</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547053038689</v>
+        <v>0.635054705303869</v>
       </c>
       <c r="Q9">
-        <v>0.0002716363898649675</v>
+        <v>0.0002716363898608335</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9997305910544</v>
+        <v>-179.9997305910543</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -20887,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350546272576878</v>
+        <v>0.635054627257688</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -20896,13 +20896,13 @@
         <v>0.6350547072530409</v>
       </c>
       <c r="Q10">
-        <v>0.000271783413276552</v>
+        <v>0.0002717834132724066</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9997305804927</v>
+        <v>-179.9997305804926</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -20946,7 +20946,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350546267197771</v>
+        <v>0.6350546267197772</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -20955,7 +20955,7 @@
         <v>0.6350547082276269</v>
       </c>
       <c r="Q11">
-        <v>0.0002718569249899575</v>
+        <v>0.0002718569249915953</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21005,7 +21005,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.635054642319184</v>
+        <v>0.6350546423191841</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -21014,13 +21014,13 @@
         <v>0.6350546799646348</v>
       </c>
       <c r="Q12">
-        <v>0.0002697250854374775</v>
+        <v>0.0002697250854187614</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9997307283559</v>
+        <v>-179.9997307283558</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -21064,7 +21064,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.635054642319184</v>
+        <v>0.6350546423191841</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -21073,13 +21073,13 @@
         <v>0.6350546799646348</v>
       </c>
       <c r="Q13">
-        <v>0.0002697250854374775</v>
+        <v>0.0002697250854187614</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9997307283559</v>
+        <v>-179.9997307283558</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -21123,16 +21123,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.635054640705453</v>
+        <v>0.6350546407054533</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350546828883931</v>
+        <v>0.6350546828883927</v>
       </c>
       <c r="Q14">
-        <v>0.0002699456206410021</v>
+        <v>0.0002699456206640554</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -21182,7 +21182,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546396296315</v>
+        <v>0.635054639629632</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -21191,13 +21191,13 @@
         <v>0.6350546848375644</v>
       </c>
       <c r="Q15">
-        <v>0.0002700926439812672</v>
+        <v>0.000270092643977133</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9997307019518</v>
+        <v>-179.9997307019517</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -21241,7 +21241,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350546428570948</v>
+        <v>0.6350546428570949</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -21250,7 +21250,7 @@
         <v>0.635054678990049</v>
       </c>
       <c r="Q16">
-        <v>0.0002696515737339634</v>
+        <v>0.0002696515737210192</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21300,7 +21300,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350546428570948</v>
+        <v>0.6350546428570949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -21309,7 +21309,7 @@
         <v>0.635054678990049</v>
       </c>
       <c r="Q17">
-        <v>0.0002696515737339634</v>
+        <v>0.0002696515737210192</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21365,16 +21365,16 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350546877613231</v>
+        <v>0.6350546877613227</v>
       </c>
       <c r="Q18">
-        <v>0.0002703131792213021</v>
+        <v>0.0002703131792652966</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9997306861093</v>
+        <v>-179.9997306861092</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -21424,16 +21424,16 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350546916596671</v>
+        <v>0.6350546916596667</v>
       </c>
       <c r="Q19">
-        <v>0.0002706072260997632</v>
+        <v>0.0002706072261572216</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.999730664986</v>
+        <v>-179.9997306649859</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -21483,16 +21483,16 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350546945834252</v>
+        <v>0.6350546945834247</v>
       </c>
       <c r="Q20">
-        <v>0.00027082776126991</v>
+        <v>0.0002708277613343939</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9997306491435</v>
+        <v>-179.9997306491434</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -21536,22 +21536,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546337126169</v>
+        <v>0.6350546337126165</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350546955580113</v>
+        <v>0.6350546955580106</v>
       </c>
       <c r="Q21">
-        <v>0.0002709012729848816</v>
+        <v>0.0002709012730435826</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9997306438627</v>
+        <v>-179.9997306438626</v>
       </c>
     </row>
   </sheetData>
@@ -21637,7 +21637,7 @@
         <v>57.73618902073871</v>
       </c>
       <c r="D2">
-        <v>57.73665680525672</v>
+        <v>57.73665680525674</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -21646,28 +21646,28 @@
         <v>333.3400427310661</v>
       </c>
       <c r="G2">
-        <v>333.3427434862401</v>
+        <v>333.3427434862402</v>
       </c>
       <c r="H2">
-        <v>0.01094228914518901</v>
+        <v>0.01094228914518902</v>
       </c>
       <c r="I2">
         <v>0.1094384008158593</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714029</v>
+        <v>0.01094540889714028</v>
       </c>
       <c r="K2">
         <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646414</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350546711133878</v>
+        <v>0.6350546711133879</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -21676,7 +21676,7 @@
         <v>0.635054671129389</v>
       </c>
       <c r="Q2">
-        <v>0.000268040118124832</v>
+        <v>0.0002680401181311406</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -21726,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546546166097</v>
+        <v>0.6350546546166096</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -21735,7 +21735,7 @@
         <v>0.6350546893003776</v>
       </c>
       <c r="Q3">
-        <v>0.0002690739057280871</v>
+        <v>0.0002690739057700938</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -21791,16 +21791,16 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350547078175112</v>
+        <v>0.6350547078175108</v>
       </c>
       <c r="Q4">
-        <v>0.0002704706283085154</v>
+        <v>0.0002704706283349233</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.999731086397</v>
+        <v>-179.9997310863969</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -21853,7 +21853,7 @@
         <v>0.635054703919166</v>
       </c>
       <c r="Q5">
-        <v>0.0002701765812828988</v>
+        <v>0.0002701765813364829</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21909,10 +21909,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350547097666818</v>
+        <v>0.6350547097666817</v>
       </c>
       <c r="Q6">
-        <v>0.0002706176515190575</v>
+        <v>0.0002706176515726416</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21971,7 +21971,7 @@
         <v>0.6350547146396114</v>
       </c>
       <c r="Q7">
-        <v>0.0002709852100621739</v>
+        <v>0.0002709852101157693</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22030,7 +22030,7 @@
         <v>0.6350547156141974</v>
       </c>
       <c r="Q8">
-        <v>0.0002710587217689275</v>
+        <v>0.0002710587218167285</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -22080,7 +22080,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546390172015</v>
+        <v>0.6350546390172014</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -22089,7 +22089,7 @@
         <v>0.635054717563369</v>
       </c>
       <c r="Q9">
-        <v>0.0002712057451786295</v>
+        <v>0.0002712057452264305</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -22148,7 +22148,7 @@
         <v>0.635054719512541</v>
       </c>
       <c r="Q10">
-        <v>0.0002713527685836225</v>
+        <v>0.0002713527686372065</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22198,7 +22198,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350546374034693</v>
+        <v>0.6350546374034691</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -22207,7 +22207,7 @@
         <v>0.635054720487127</v>
       </c>
       <c r="Q11">
-        <v>0.0002714262802853851</v>
+        <v>0.0002714262803505355</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22257,16 +22257,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.635054653002877</v>
+        <v>0.6350546530028768</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350546922241357</v>
+        <v>0.6350546922241355</v>
       </c>
       <c r="Q12">
-        <v>0.0002692944408206878</v>
+        <v>0.0002692944408684888</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -22316,16 +22316,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.635054653002877</v>
+        <v>0.6350546530028768</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546922241357</v>
+        <v>0.6350546922241355</v>
       </c>
       <c r="Q13">
-        <v>0.0002692944408206878</v>
+        <v>0.0002692944408684888</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22381,16 +22381,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350546951478934</v>
+        <v>0.6350546951478931</v>
       </c>
       <c r="Q14">
-        <v>0.0002695149759740015</v>
+        <v>0.0002695149760221075</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9997311550477</v>
+        <v>-179.9997311550476</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -22434,16 +22434,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546503133245</v>
+        <v>0.6350546503133244</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546970970647</v>
+        <v>0.6350546970970646</v>
       </c>
       <c r="Q15">
-        <v>0.0002696619993543014</v>
+        <v>0.0002696619994020912</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -22493,16 +22493,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350546535407879</v>
+        <v>0.6350546535407878</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350546912495496</v>
+        <v>0.6350546912495495</v>
       </c>
       <c r="Q16">
-        <v>0.0002692209291172956</v>
+        <v>0.0002692209291592908</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -22552,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350546535407879</v>
+        <v>0.6350546535407878</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546912495496</v>
+        <v>0.6350546912495495</v>
       </c>
       <c r="Q17">
-        <v>0.0002692209291172956</v>
+        <v>0.0002692209291592908</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -22611,22 +22611,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350546486995935</v>
+        <v>0.6350546486995936</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350547000208234</v>
+        <v>0.6350547000208231</v>
       </c>
       <c r="Q18">
-        <v>0.0002698825345599838</v>
+        <v>0.0002698825345963993</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9997311286436</v>
+        <v>-179.9997311286435</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -22676,10 +22676,10 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350547039191673</v>
+        <v>0.635054703919167</v>
       </c>
       <c r="Q19">
-        <v>0.0002701765814496143</v>
+        <v>0.0002701765814740117</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -22729,22 +22729,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.63505464493422</v>
+        <v>0.6350546449342203</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350547068429252</v>
+        <v>0.6350547068429251</v>
       </c>
       <c r="Q20">
-        <v>0.0002703971166150245</v>
+        <v>0.0002703971166300582</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9997310916778</v>
+        <v>-179.9997310916777</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -22788,16 +22788,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546443963095</v>
+        <v>0.6350546443963098</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350547078175114</v>
+        <v>0.6350547078175112</v>
       </c>
       <c r="Q21">
-        <v>0.0002704706283067872</v>
+        <v>0.0002704706283333871</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -22907,13 +22907,13 @@
         <v>0.1094383951790285</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714031</v>
+        <v>0.01094540889714032</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646418</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -22925,7 +22925,7 @@
         <v>1.086862152572967</v>
       </c>
       <c r="P2">
-        <v>1.090352558444191</v>
+        <v>1.090352558444192</v>
       </c>
       <c r="Q2">
         <v>29.52465640833927</v>
@@ -23630,13 +23630,13 @@
         <v>1.096496872401241</v>
       </c>
       <c r="O14">
-        <v>1.086862152249446</v>
+        <v>1.086862152249445</v>
       </c>
       <c r="P14">
         <v>1.090352558450941</v>
       </c>
       <c r="Q14">
-        <v>29.52465641844715</v>
+        <v>29.52465641844714</v>
       </c>
       <c r="R14">
         <v>-90.55768084663049</v>
@@ -23695,7 +23695,7 @@
         <v>1.090352558460094</v>
       </c>
       <c r="Q15">
-        <v>29.52465641960078</v>
+        <v>29.52465641960077</v>
       </c>
       <c r="R15">
         <v>-90.55768084395736</v>
@@ -23875,7 +23875,7 @@
         <v>29.52465642133122</v>
       </c>
       <c r="R18">
-        <v>-90.55768083994766</v>
+        <v>-90.55768083994768</v>
       </c>
       <c r="S18">
         <v>149.9221292498441</v>
@@ -24153,19 +24153,19 @@
         <v>5.123517109350802</v>
       </c>
       <c r="H2">
-        <v>0.01094228914518901</v>
+        <v>0.01094228914518902</v>
       </c>
       <c r="I2">
         <v>0.1094384008158593</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714029</v>
+        <v>0.01094540889714028</v>
       </c>
       <c r="K2">
         <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646414</v>
+        <v>0.01094540889646415</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6727583959339</v>
+        <v>266.6727583959338</v>
       </c>
       <c r="G2">
         <v>266.6752144274883</v>
@@ -25414,16 +25414,16 @@
         <v>0.01243796466366948</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.5773186155630657</v>
+        <v>0.5773186155630659</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -25432,7 +25432,7 @@
         <v>0.5773186155422058</v>
       </c>
       <c r="Q2">
-        <v>0.0003046929818133986</v>
+        <v>0.0003046929818155225</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -25482,22 +25482,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773186006969884</v>
+        <v>0.5773186006969895</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186319170673</v>
+        <v>0.5773186319170677</v>
       </c>
       <c r="Q3">
-        <v>0.0003057177623137294</v>
+        <v>0.0003057177621625448</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9996945420711</v>
+        <v>-179.9996945420712</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -25541,22 +25541,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773185948754447</v>
+        <v>0.5773185948754469</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773186522203845</v>
+        <v>0.5773186522203846</v>
       </c>
       <c r="Q4">
-        <v>0.0003077108351372782</v>
+        <v>0.0003077108347266026</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9996950380682</v>
+        <v>-179.9996950380683</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185961010316</v>
+        <v>0.5773185961010344</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773186479460017</v>
+        <v>0.5773186479460019</v>
       </c>
       <c r="Q5">
-        <v>0.0003072912407849053</v>
+        <v>0.0003072912405463988</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9996949336477</v>
+        <v>-179.9996949336478</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -25659,22 +25659,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185942626491</v>
+        <v>0.5773185942626526</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773186543575756</v>
+        <v>0.5773186543575753</v>
       </c>
       <c r="Q6">
-        <v>0.0003079206321810588</v>
+        <v>0.0003079206319113534</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950902784</v>
+        <v>-179.9996950902785</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -25718,22 +25718,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318592730664</v>
+        <v>0.577318592730668</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.577318659700554</v>
+        <v>0.5773186597005534</v>
       </c>
       <c r="Q7">
-        <v>0.0003084451250123123</v>
+        <v>0.0003084451247162787</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952208039</v>
+        <v>-179.999695220804</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -25777,22 +25777,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.577318592424267</v>
+        <v>0.5773185924242711</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186607691496</v>
+        <v>0.5773186607691492</v>
       </c>
       <c r="Q8">
-        <v>0.0003085500235727219</v>
+        <v>0.0003085500232570696</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.999695246909</v>
+        <v>-179.9996952469091</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185918114728</v>
+        <v>0.5773185918114772</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186629063408</v>
+        <v>0.5773186629063404</v>
       </c>
       <c r="Q9">
-        <v>0.0003087598206980004</v>
+        <v>0.0003087598203919523</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952991192</v>
+        <v>-179.9996952991193</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -25895,22 +25895,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185911986788</v>
+        <v>0.5773185911986832</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186650435321</v>
+        <v>0.5773186650435318</v>
       </c>
       <c r="Q10">
-        <v>0.0003089696178204068</v>
+        <v>0.0003089696175169304</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9996953513294</v>
+        <v>-179.9996953513296</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -25954,22 +25954,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185908922818</v>
+        <v>0.5773185908922863</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186661121279</v>
+        <v>0.5773186661121273</v>
       </c>
       <c r="Q11">
-        <v>0.0003090745163823547</v>
+        <v>0.000309074516064739</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953774346</v>
+        <v>-179.9996953774347</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -26013,16 +26013,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577318599777797</v>
+        <v>0.5773185997777984</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773186351228543</v>
+        <v>0.5773186351228548</v>
       </c>
       <c r="Q12">
-        <v>0.0003060324579766554</v>
+        <v>0.0003060324578427907</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26072,16 +26072,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.577318599777797</v>
+        <v>0.5773185997777984</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186351228543</v>
+        <v>0.5773186351228548</v>
       </c>
       <c r="Q13">
-        <v>0.0003060324579766554</v>
+        <v>0.0003060324578427907</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26131,16 +26131,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773185988586059</v>
+        <v>0.5773185988586074</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186383286408</v>
+        <v>0.5773186383286415</v>
       </c>
       <c r="Q14">
-        <v>0.0003063471537323648</v>
+        <v>0.0003063471534836708</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26190,22 +26190,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185982458113</v>
+        <v>0.5773185982458134</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186404658323</v>
+        <v>0.5773186404658326</v>
       </c>
       <c r="Q15">
-        <v>0.0003065569508294967</v>
+        <v>0.0003065569506315448</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.999694750912</v>
+        <v>-179.9996947509121</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -26249,16 +26249,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.577318600084194</v>
+        <v>0.5773186000841953</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186340542587</v>
+        <v>0.5773186340542591</v>
       </c>
       <c r="Q16">
-        <v>0.0003059275594240992</v>
+        <v>0.0003059275592916385</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -26308,16 +26308,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.577318600084194</v>
+        <v>0.5773186000841953</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186340542587</v>
+        <v>0.5773186340542591</v>
       </c>
       <c r="Q17">
-        <v>0.0003059275594240992</v>
+        <v>0.0003059275592916385</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -26367,22 +26367,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185973266208</v>
+        <v>0.5773185973266225</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773186436716189</v>
+        <v>0.5773186436716197</v>
       </c>
       <c r="Q18">
-        <v>0.0003068716465893237</v>
+        <v>0.0003068716462722438</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9996948292273</v>
+        <v>-179.9996948292274</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -26426,22 +26426,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185961010326</v>
+        <v>0.5773185961010345</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186479460016</v>
+        <v>0.577318647946002</v>
       </c>
       <c r="Q19">
-        <v>0.0003072912408737167</v>
+        <v>0.0003072912404979299</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9996949336477</v>
+        <v>-179.9996949336478</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -26485,22 +26485,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185951818416</v>
+        <v>0.5773185951818438</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186511517888</v>
+        <v>0.5773186511517889</v>
       </c>
       <c r="Q20">
-        <v>0.0003076059365790142</v>
+        <v>0.000307605936168289</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.999695011963</v>
+        <v>-179.9996950119631</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -26544,22 +26544,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773185948754447</v>
+        <v>0.5773185948754467</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773186522203845</v>
+        <v>0.5773186522203847</v>
       </c>
       <c r="Q21">
-        <v>0.000307710835143242</v>
+        <v>0.0003077108347256087</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9996950380682</v>
+        <v>-179.9996950380683</v>
       </c>
     </row>
   </sheetData>
@@ -26986,7 +26986,7 @@
         <v>1.086862152221152</v>
       </c>
       <c r="G18">
-        <v>-0.5576808399514955</v>
+        <v>-0.5576808399514956</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27009,7 +27009,7 @@
         <v>1.086862152198252</v>
       </c>
       <c r="G19">
-        <v>-0.5576808346052483</v>
+        <v>-0.5576808346052484</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27055,7 +27055,7 @@
         <v>1.086862152175352</v>
       </c>
       <c r="G21">
-        <v>-0.5576808292590011</v>
+        <v>-0.5576808292590012</v>
       </c>
     </row>
   </sheetData>
@@ -27147,7 +27147,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>266.6727583959339</v>
+        <v>266.6727583959338</v>
       </c>
       <c r="G2">
         <v>266.6752144274883</v>
@@ -27162,16 +27162,16 @@
         <v>0.01243796466366948</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
       </c>
       <c r="N2">
-        <v>0.5773186155630657</v>
+        <v>0.5773186155630659</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -27180,7 +27180,7 @@
         <v>0.5773186155422058</v>
       </c>
       <c r="Q2">
-        <v>0.0003046929818133986</v>
+        <v>0.0003046929818155225</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -27230,22 +27230,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773186006969884</v>
+        <v>0.5773186006969895</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186319170673</v>
+        <v>0.5773186319170677</v>
       </c>
       <c r="Q3">
-        <v>0.0003057177623137294</v>
+        <v>0.0003057177621625448</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9996945420711</v>
+        <v>-179.9996945420712</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -27289,22 +27289,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773185948754447</v>
+        <v>0.5773185948754469</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773186522203845</v>
+        <v>0.5773186522203846</v>
       </c>
       <c r="Q4">
-        <v>0.0003077108351372782</v>
+        <v>0.0003077108347266026</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9996950380682</v>
+        <v>-179.9996950380683</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -27348,22 +27348,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185961010316</v>
+        <v>0.5773185961010344</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773186479460017</v>
+        <v>0.5773186479460019</v>
       </c>
       <c r="Q5">
-        <v>0.0003072912407849053</v>
+        <v>0.0003072912405463988</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9996949336477</v>
+        <v>-179.9996949336478</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -27407,22 +27407,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185942626491</v>
+        <v>0.5773185942626526</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773186543575756</v>
+        <v>0.5773186543575753</v>
       </c>
       <c r="Q6">
-        <v>0.0003079206321810588</v>
+        <v>0.0003079206319113534</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950902784</v>
+        <v>-179.9996950902785</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -27466,22 +27466,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318592730664</v>
+        <v>0.577318592730668</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.577318659700554</v>
+        <v>0.5773186597005534</v>
       </c>
       <c r="Q7">
-        <v>0.0003084451250123123</v>
+        <v>0.0003084451247162787</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952208039</v>
+        <v>-179.999695220804</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -27525,22 +27525,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.577318592424267</v>
+        <v>0.5773185924242711</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186607691496</v>
+        <v>0.5773186607691492</v>
       </c>
       <c r="Q8">
-        <v>0.0003085500235727219</v>
+        <v>0.0003085500232570696</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.999695246909</v>
+        <v>-179.9996952469091</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185918114728</v>
+        <v>0.5773185918114772</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186629063408</v>
+        <v>0.5773186629063404</v>
       </c>
       <c r="Q9">
-        <v>0.0003087598206980004</v>
+        <v>0.0003087598203919523</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952991192</v>
+        <v>-179.9996952991193</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -27643,22 +27643,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185911986788</v>
+        <v>0.5773185911986832</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186650435321</v>
+        <v>0.5773186650435318</v>
       </c>
       <c r="Q10">
-        <v>0.0003089696178204068</v>
+        <v>0.0003089696175169304</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9996953513294</v>
+        <v>-179.9996953513296</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -27702,22 +27702,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185908922818</v>
+        <v>0.5773185908922863</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186661121279</v>
+        <v>0.5773186661121273</v>
       </c>
       <c r="Q11">
-        <v>0.0003090745163823547</v>
+        <v>0.000309074516064739</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953774346</v>
+        <v>-179.9996953774347</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -27761,16 +27761,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577318599777797</v>
+        <v>0.5773185997777984</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773186351228543</v>
+        <v>0.5773186351228548</v>
       </c>
       <c r="Q12">
-        <v>0.0003060324579766554</v>
+        <v>0.0003060324578427907</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -27820,16 +27820,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.577318599777797</v>
+        <v>0.5773185997777984</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186351228543</v>
+        <v>0.5773186351228548</v>
       </c>
       <c r="Q13">
-        <v>0.0003060324579766554</v>
+        <v>0.0003060324578427907</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -27879,16 +27879,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773185988586059</v>
+        <v>0.5773185988586074</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186383286408</v>
+        <v>0.5773186383286415</v>
       </c>
       <c r="Q14">
-        <v>0.0003063471537323648</v>
+        <v>0.0003063471534836708</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -27938,22 +27938,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185982458113</v>
+        <v>0.5773185982458134</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186404658323</v>
+        <v>0.5773186404658326</v>
       </c>
       <c r="Q15">
-        <v>0.0003065569508294967</v>
+        <v>0.0003065569506315448</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.999694750912</v>
+        <v>-179.9996947509121</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -27997,16 +27997,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.577318600084194</v>
+        <v>0.5773186000841953</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186340542587</v>
+        <v>0.5773186340542591</v>
       </c>
       <c r="Q16">
-        <v>0.0003059275594240992</v>
+        <v>0.0003059275592916385</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.577318600084194</v>
+        <v>0.5773186000841953</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186340542587</v>
+        <v>0.5773186340542591</v>
       </c>
       <c r="Q17">
-        <v>0.0003059275594240992</v>
+        <v>0.0003059275592916385</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28115,22 +28115,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185973266208</v>
+        <v>0.5773185973266225</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773186436716189</v>
+        <v>0.5773186436716197</v>
       </c>
       <c r="Q18">
-        <v>0.0003068716465893237</v>
+        <v>0.0003068716462722438</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9996948292273</v>
+        <v>-179.9996948292274</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -28174,22 +28174,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185961010326</v>
+        <v>0.5773185961010345</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186479460016</v>
+        <v>0.577318647946002</v>
       </c>
       <c r="Q19">
-        <v>0.0003072912408737167</v>
+        <v>0.0003072912404979299</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9996949336477</v>
+        <v>-179.9996949336478</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -28233,22 +28233,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185951818416</v>
+        <v>0.5773185951818438</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186511517888</v>
+        <v>0.5773186511517889</v>
       </c>
       <c r="Q20">
-        <v>0.0003076059365790142</v>
+        <v>0.000307605936168289</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.999695011963</v>
+        <v>-179.9996950119631</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -28292,22 +28292,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773185948754447</v>
+        <v>0.5773185948754467</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773186522203845</v>
+        <v>0.5773186522203847</v>
       </c>
       <c r="Q21">
-        <v>0.000307710835143242</v>
+        <v>0.0003077108347256087</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9996950380682</v>
+        <v>-179.9996950380683</v>
       </c>
     </row>
   </sheetData>
@@ -28414,10 +28414,10 @@
         <v>0.01243796466366948</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -28488,7 +28488,7 @@
         <v>0.9864427565220334</v>
       </c>
       <c r="P3">
-        <v>0.9900480167186116</v>
+        <v>0.9900480167186118</v>
       </c>
       <c r="Q3">
         <v>29.46075692676058</v>
@@ -28659,16 +28659,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798795894214</v>
+        <v>0.9963798795894215</v>
       </c>
       <c r="O6">
         <v>0.9864427565773008</v>
       </c>
       <c r="P6">
-        <v>0.9900480169502527</v>
+        <v>0.9900480169502524</v>
       </c>
       <c r="Q6">
-        <v>29.4607569476999</v>
+        <v>29.46075694769989</v>
       </c>
       <c r="R6">
         <v>-90.63269604646726</v>
@@ -28727,10 +28727,10 @@
         <v>0.990048017005405</v>
       </c>
       <c r="Q7">
-        <v>29.46075695268545</v>
+        <v>29.46075695268544</v>
       </c>
       <c r="R7">
-        <v>-90.63269603684481</v>
+        <v>-90.63269603684482</v>
       </c>
       <c r="S7">
         <v>149.9123035530497</v>
@@ -28786,7 +28786,7 @@
         <v>0.9900480170164355</v>
       </c>
       <c r="Q8">
-        <v>29.46075695368256</v>
+        <v>29.46075695368255</v>
       </c>
       <c r="R8">
         <v>-90.63269603492031</v>
@@ -28848,7 +28848,7 @@
         <v>29.46075695567678</v>
       </c>
       <c r="R9">
-        <v>-90.63269603107132</v>
+        <v>-90.63269603107133</v>
       </c>
       <c r="S9">
         <v>149.9123035557759</v>
@@ -28898,7 +28898,7 @@
         <v>0.9963798795072153</v>
       </c>
       <c r="O10">
-        <v>0.9864427566036185</v>
+        <v>0.9864427566036186</v>
       </c>
       <c r="P10">
         <v>0.9900480170605576</v>
@@ -28907,7 +28907,7 @@
         <v>29.46075695767099</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722234</v>
+        <v>-90.63269602722235</v>
       </c>
       <c r="S10">
         <v>149.9123035575934</v>
@@ -28957,16 +28957,16 @@
         <v>0.9963798794989946</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062504</v>
+        <v>0.9864427566062502</v>
       </c>
       <c r="P11">
         <v>0.9900480170715881</v>
       </c>
       <c r="Q11">
-        <v>29.46075695866811</v>
+        <v>29.4607569586681</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529785</v>
+        <v>-90.63269602529786</v>
       </c>
       <c r="S11">
         <v>149.9123035585021</v>
@@ -29255,7 +29255,7 @@
         <v>0.9864427565272968</v>
       </c>
       <c r="P16">
-        <v>0.9900480167406728</v>
+        <v>0.9900480167406727</v>
       </c>
       <c r="Q16">
         <v>29.4607569287548</v>
@@ -29314,7 +29314,7 @@
         <v>0.9864427565272968</v>
       </c>
       <c r="P17">
-        <v>0.9900480167406728</v>
+        <v>0.9900480167406727</v>
       </c>
       <c r="Q17">
         <v>29.4607569287548</v>
@@ -29435,7 +29435,7 @@
         <v>0.9900480168840694</v>
       </c>
       <c r="Q19">
-        <v>29.46075694171724</v>
+        <v>29.46075694171723</v>
       </c>
       <c r="R19">
         <v>-90.63269605801422</v>
@@ -29485,19 +29485,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798796140835</v>
+        <v>0.9963798796140833</v>
       </c>
       <c r="O20">
         <v>0.9864427565694054</v>
       </c>
       <c r="P20">
-        <v>0.9900480169171608</v>
+        <v>0.9900480169171609</v>
       </c>
       <c r="Q20">
-        <v>29.46075694470857</v>
+        <v>29.46075694470856</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224073</v>
+        <v>-90.63269605224075</v>
       </c>
       <c r="S20">
         <v>149.9123035457797</v>
@@ -29666,10 +29666,10 @@
         <v>0.01243796466366948</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -29740,7 +29740,7 @@
         <v>0.9864427565220334</v>
       </c>
       <c r="P3">
-        <v>0.9900480167186116</v>
+        <v>0.9900480167186118</v>
       </c>
       <c r="Q3">
         <v>29.46075692676058</v>
@@ -29911,16 +29911,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798795894214</v>
+        <v>0.9963798795894215</v>
       </c>
       <c r="O6">
         <v>0.9864427565773008</v>
       </c>
       <c r="P6">
-        <v>0.9900480169502527</v>
+        <v>0.9900480169502524</v>
       </c>
       <c r="Q6">
-        <v>29.4607569476999</v>
+        <v>29.46075694769989</v>
       </c>
       <c r="R6">
         <v>-90.63269604646726</v>
@@ -29979,10 +29979,10 @@
         <v>0.990048017005405</v>
       </c>
       <c r="Q7">
-        <v>29.46075695268545</v>
+        <v>29.46075695268544</v>
       </c>
       <c r="R7">
-        <v>-90.63269603684481</v>
+        <v>-90.63269603684482</v>
       </c>
       <c r="S7">
         <v>149.9123035530497</v>
@@ -30038,7 +30038,7 @@
         <v>0.9900480170164355</v>
       </c>
       <c r="Q8">
-        <v>29.46075695368256</v>
+        <v>29.46075695368255</v>
       </c>
       <c r="R8">
         <v>-90.63269603492031</v>
@@ -30100,7 +30100,7 @@
         <v>29.46075695567678</v>
       </c>
       <c r="R9">
-        <v>-90.63269603107132</v>
+        <v>-90.63269603107133</v>
       </c>
       <c r="S9">
         <v>149.9123035557759</v>
@@ -30150,7 +30150,7 @@
         <v>0.9963798795072153</v>
       </c>
       <c r="O10">
-        <v>0.9864427566036185</v>
+        <v>0.9864427566036186</v>
       </c>
       <c r="P10">
         <v>0.9900480170605576</v>
@@ -30159,7 +30159,7 @@
         <v>29.46075695767099</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722234</v>
+        <v>-90.63269602722235</v>
       </c>
       <c r="S10">
         <v>149.9123035575934</v>
@@ -30209,16 +30209,16 @@
         <v>0.9963798794989946</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062504</v>
+        <v>0.9864427566062502</v>
       </c>
       <c r="P11">
         <v>0.9900480170715881</v>
       </c>
       <c r="Q11">
-        <v>29.46075695866811</v>
+        <v>29.4607569586681</v>
       </c>
       <c r="R11">
-        <v>-90.63269602529785</v>
+        <v>-90.63269602529786</v>
       </c>
       <c r="S11">
         <v>149.9123035585021</v>
@@ -30507,7 +30507,7 @@
         <v>0.9864427565272968</v>
       </c>
       <c r="P16">
-        <v>0.9900480167406728</v>
+        <v>0.9900480167406727</v>
       </c>
       <c r="Q16">
         <v>29.4607569287548</v>
@@ -30566,7 +30566,7 @@
         <v>0.9864427565272968</v>
       </c>
       <c r="P17">
-        <v>0.9900480167406728</v>
+        <v>0.9900480167406727</v>
       </c>
       <c r="Q17">
         <v>29.4607569287548</v>
@@ -30687,7 +30687,7 @@
         <v>0.9900480168840694</v>
       </c>
       <c r="Q19">
-        <v>29.46075694171724</v>
+        <v>29.46075694171723</v>
       </c>
       <c r="R19">
         <v>-90.63269605801422</v>
@@ -30737,19 +30737,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798796140835</v>
+        <v>0.9963798796140833</v>
       </c>
       <c r="O20">
         <v>0.9864427565694054</v>
       </c>
       <c r="P20">
-        <v>0.9900480169171608</v>
+        <v>0.9900480169171609</v>
       </c>
       <c r="Q20">
-        <v>29.46075694470857</v>
+        <v>29.46075694470856</v>
       </c>
       <c r="R20">
-        <v>-90.63269605224073</v>
+        <v>-90.63269605224075</v>
       </c>
       <c r="S20">
         <v>149.9123035457797</v>
@@ -30893,7 +30893,7 @@
         <v>1.086862152270357</v>
       </c>
       <c r="G3">
-        <v>-0.5576808535978321</v>
+        <v>-0.5576808535978324</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -30916,7 +30916,7 @@
         <v>1.086862152161582</v>
       </c>
       <c r="G4">
-        <v>-0.5576808282031587</v>
+        <v>-0.557680828203159</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -30939,7 +30939,7 @@
         <v>1.086862152184481</v>
       </c>
       <c r="G5">
-        <v>-0.5576808335494056</v>
+        <v>-0.5576808335494057</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -30962,7 +30962,7 @@
         <v>1.086862152150132</v>
       </c>
       <c r="G6">
-        <v>-0.5576808255300347</v>
+        <v>-0.557680825530035</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -30985,7 +30985,7 @@
         <v>1.086862152121506</v>
       </c>
       <c r="G7">
-        <v>-0.5576808188472258</v>
+        <v>-0.557680818847226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -31008,7 +31008,7 @@
         <v>1.086862152115781</v>
       </c>
       <c r="G8">
-        <v>-0.5576808175106642</v>
+        <v>-0.5576808175106643</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -31031,7 +31031,7 @@
         <v>1.086862152104331</v>
       </c>
       <c r="G9">
-        <v>-0.5576808148375405</v>
+        <v>-0.5576808148375406</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -31054,7 +31054,7 @@
         <v>1.086862152092881</v>
       </c>
       <c r="G10">
-        <v>-0.5576808121644168</v>
+        <v>-0.5576808121644169</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -31100,7 +31100,7 @@
         <v>1.086862152253182</v>
       </c>
       <c r="G12">
-        <v>-0.5576808495881468</v>
+        <v>-0.5576808495881469</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -31123,7 +31123,7 @@
         <v>1.086862152253182</v>
       </c>
       <c r="G13">
-        <v>-0.5576808495881468</v>
+        <v>-0.5576808495881469</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -31146,7 +31146,7 @@
         <v>1.086862152236007</v>
       </c>
       <c r="G14">
-        <v>-0.5576808455784618</v>
+        <v>-0.557680845578462</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -31192,7 +31192,7 @@
         <v>1.086862152258907</v>
       </c>
       <c r="G16">
-        <v>-0.5576808509247085</v>
+        <v>-0.5576808509247088</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -31215,7 +31215,7 @@
         <v>1.086862152258907</v>
       </c>
       <c r="G17">
-        <v>-0.5576808509247085</v>
+        <v>-0.5576808509247088</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -31238,7 +31238,7 @@
         <v>1.086862152207382</v>
       </c>
       <c r="G18">
-        <v>-0.5576808388956529</v>
+        <v>-0.5576808388956532</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -31261,7 +31261,7 @@
         <v>1.086862152184481</v>
       </c>
       <c r="G19">
-        <v>-0.5576808335494059</v>
+        <v>-0.5576808335494062</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -31284,7 +31284,7 @@
         <v>1.086862152167306</v>
       </c>
       <c r="G20">
-        <v>-0.5576808295397205</v>
+        <v>-0.5576808295397209</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -31307,7 +31307,7 @@
         <v>1.086862152161582</v>
       </c>
       <c r="G21">
-        <v>-0.5576808282031587</v>
+        <v>-0.5576808282031591</v>
       </c>
     </row>
   </sheetData>
@@ -31357,7 +31357,7 @@
         <v>800.0000280430305</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -31853,7 +31853,7 @@
         <v>800.0000280430305</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32349,7 +32349,7 @@
         <v>13.95040725215016</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32381,7 +32381,7 @@
         <v>0.9864427565206948</v>
       </c>
       <c r="G3">
-        <v>-0.6326960868862196</v>
+        <v>-0.6326960868862205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32404,7 +32404,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G4">
-        <v>-0.6326960503208694</v>
+        <v>-0.6326960503208722</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32427,7 +32427,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G5">
-        <v>-0.6326960580188397</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32450,7 +32450,7 @@
         <v>0.986442756575962</v>
       </c>
       <c r="G6">
-        <v>-0.6326960464718877</v>
+        <v>-0.632696046471888</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32470,10 +32470,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.986442756589121</v>
+        <v>0.9864427565891211</v>
       </c>
       <c r="G7">
-        <v>-0.6326960368494277</v>
+        <v>-0.632696036849428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32493,10 +32493,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9864427565917526</v>
+        <v>0.9864427565917528</v>
       </c>
       <c r="G8">
-        <v>-0.6326960349249356</v>
+        <v>-0.632696034924936</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -32516,10 +32516,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9864427565970162</v>
+        <v>0.9864427565970163</v>
       </c>
       <c r="G9">
-        <v>-0.6326960310759517</v>
+        <v>-0.6326960310759518</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -32539,10 +32539,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9864427566022798</v>
+        <v>0.9864427566022799</v>
       </c>
       <c r="G10">
-        <v>-0.6326960272269676</v>
+        <v>-0.6326960272269678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -32562,7 +32562,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9864427566049115</v>
+        <v>0.9864427566049117</v>
       </c>
       <c r="G11">
         <v>-0.6326960253024758</v>
@@ -32588,7 +32588,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G12">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -32611,7 +32611,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G13">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32634,7 +32634,7 @@
         <v>0.9864427565364854</v>
       </c>
       <c r="G14">
-        <v>-0.6326960753392669</v>
+        <v>-0.6326960753392682</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -32657,7 +32657,7 @@
         <v>0.986442756541749</v>
       </c>
       <c r="G15">
-        <v>-0.6326960714902835</v>
+        <v>-0.6326960714902844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32677,10 +32677,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G16">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G17">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -32726,7 +32726,7 @@
         <v>0.9864427565496443</v>
       </c>
       <c r="G18">
-        <v>-0.6326960657168064</v>
+        <v>-0.6326960657168081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -32749,7 +32749,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G19">
-        <v>-0.6326960580188379</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -32772,7 +32772,7 @@
         <v>0.9864427565680668</v>
       </c>
       <c r="G20">
-        <v>-0.6326960522453615</v>
+        <v>-0.632696052245364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -32795,7 +32795,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G21">
-        <v>-0.6326960503208695</v>
+        <v>-0.6326960503208721</v>
       </c>
     </row>
   </sheetData>
@@ -32845,7 +32845,7 @@
         <v>13.95040725215016</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32877,7 +32877,7 @@
         <v>0.9864427565206948</v>
       </c>
       <c r="G3">
-        <v>-0.6326960868862196</v>
+        <v>-0.6326960868862205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32900,7 +32900,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G4">
-        <v>-0.6326960503208694</v>
+        <v>-0.6326960503208722</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32923,7 +32923,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G5">
-        <v>-0.6326960580188397</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32946,7 +32946,7 @@
         <v>0.986442756575962</v>
       </c>
       <c r="G6">
-        <v>-0.6326960464718877</v>
+        <v>-0.632696046471888</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32966,10 +32966,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.986442756589121</v>
+        <v>0.9864427565891211</v>
       </c>
       <c r="G7">
-        <v>-0.6326960368494277</v>
+        <v>-0.632696036849428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32989,10 +32989,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9864427565917526</v>
+        <v>0.9864427565917528</v>
       </c>
       <c r="G8">
-        <v>-0.6326960349249356</v>
+        <v>-0.632696034924936</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -33012,10 +33012,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9864427565970162</v>
+        <v>0.9864427565970163</v>
       </c>
       <c r="G9">
-        <v>-0.6326960310759517</v>
+        <v>-0.6326960310759518</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33035,10 +33035,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9864427566022798</v>
+        <v>0.9864427566022799</v>
       </c>
       <c r="G10">
-        <v>-0.6326960272269676</v>
+        <v>-0.6326960272269678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -33058,7 +33058,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9864427566049115</v>
+        <v>0.9864427566049117</v>
       </c>
       <c r="G11">
         <v>-0.6326960253024758</v>
@@ -33084,7 +33084,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G12">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -33107,7 +33107,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G13">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33130,7 +33130,7 @@
         <v>0.9864427565364854</v>
       </c>
       <c r="G14">
-        <v>-0.6326960753392669</v>
+        <v>-0.6326960753392682</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -33153,7 +33153,7 @@
         <v>0.986442756541749</v>
       </c>
       <c r="G15">
-        <v>-0.6326960714902835</v>
+        <v>-0.6326960714902844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -33173,10 +33173,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G16">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -33196,10 +33196,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G17">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -33222,7 +33222,7 @@
         <v>0.9864427565496443</v>
       </c>
       <c r="G18">
-        <v>-0.6326960657168064</v>
+        <v>-0.6326960657168081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -33245,7 +33245,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G19">
-        <v>-0.6326960580188379</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -33268,7 +33268,7 @@
         <v>0.9864427565680668</v>
       </c>
       <c r="G20">
-        <v>-0.6326960522453615</v>
+        <v>-0.632696052245364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -33291,7 +33291,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G21">
-        <v>-0.6326960503208695</v>
+        <v>-0.6326960503208721</v>
       </c>
     </row>
   </sheetData>
